--- a/Output/cytokinescores.xlsx
+++ b/Output/cytokinescores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:X112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,42 +410,72 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>ifn_alpha_siddiqi</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_beta_siddiqi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_gamma_siddiqi</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>m_1_2_geomean</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>m_3_4_geomean</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>m_5_12_geomean</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ifn_1_el_sherb_geomean</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ifn_2_el_sherb_geomean</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ifn_2_siddiqi_geomean</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>il_6_related_geomean</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tnf_related_geomean</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_alpha_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_beta_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_gamma_siddiqi_geomean</t>
         </is>
       </c>
     </row>
@@ -485,28 +515,46 @@
         <v>-0.1493913544723338</v>
       </c>
       <c r="K2">
+        <v>-0.1487952952409826</v>
+      </c>
+      <c r="L2">
+        <v>-0.2397193714290844</v>
+      </c>
+      <c r="M2">
+        <v>-0.106005204247533</v>
+      </c>
+      <c r="N2">
         <v>264.8593834274432</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>461.4874136269785</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>938.1918059336167</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>212.3875507675087</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>388.7175105797443</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>4972.482032510392</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>233.0532253170565</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>125.7408948797997</v>
+      </c>
+      <c r="V2">
+        <v>247.3307498844947</v>
+      </c>
+      <c r="W2">
+        <v>65.41203931186855</v>
+      </c>
+      <c r="X2">
+        <v>2077.1876286724</v>
       </c>
     </row>
     <row r="3">
@@ -545,28 +593,46 @@
         <v>-0.01507177301850672</v>
       </c>
       <c r="K3">
+        <v>-0.003594233082217027</v>
+      </c>
+      <c r="L3">
+        <v>0.1384483355876008</v>
+      </c>
+      <c r="M3">
+        <v>-0.05668201891339515</v>
+      </c>
+      <c r="N3">
         <v>340.3096990356291</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>534.2393567711839</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>947.3291681193349</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>259.3932536074603</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>438.5730806114535</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>4980.736362790606</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>241.0532753169863</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>144.4968165425</v>
+      </c>
+      <c r="V3">
+        <v>290.476821084999</v>
+      </c>
+      <c r="W3">
+        <v>99.10956836983043</v>
+      </c>
+      <c r="X3">
+        <v>2210.262442236705</v>
       </c>
     </row>
     <row r="4">
@@ -605,28 +671,46 @@
         <v>-0.1138553948025838</v>
       </c>
       <c r="K4">
+        <v>-0.1277555439509213</v>
+      </c>
+      <c r="L4">
+        <v>-0.1355298020376266</v>
+      </c>
+      <c r="M4">
+        <v>-0.3941379966455543</v>
+      </c>
+      <c r="N4">
         <v>297.3752821678439</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>430.3361235627975</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>779.364013610533</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>185.2365539274146</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>372.4203864157757</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>2693.809966162009</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>220.8980149954462</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>130.2063057310589</v>
+      </c>
+      <c r="V4">
+        <v>251.1287412512003</v>
+      </c>
+      <c r="W4">
+        <v>74.73231751037225</v>
+      </c>
+      <c r="X4">
+        <v>1362.602189630922</v>
       </c>
     </row>
     <row r="5">
@@ -665,28 +749,46 @@
         <v>0.09014756938788153</v>
       </c>
       <c r="K5">
+        <v>-0.2142140531497813</v>
+      </c>
+      <c r="L5">
+        <v>0.102743249866345</v>
+      </c>
+      <c r="M5">
+        <v>0.2557141645908352</v>
+      </c>
+      <c r="N5">
         <v>252.5908062771199</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>461.9097007307908</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>883.3908680773673</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>180.9686468142907</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>406.1343514096553</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>7089.334125372778</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>243.8716564378562</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>155.7940825096809</v>
+      </c>
+      <c r="V5">
+        <v>227.2230441886429</v>
+      </c>
+      <c r="W5">
+        <v>95.2857469075913</v>
+      </c>
+      <c r="X5">
+        <v>2818.55889966563</v>
       </c>
     </row>
     <row r="6">
@@ -725,28 +827,46 @@
         <v>-0.06042536236407336</v>
       </c>
       <c r="K6">
+        <v>0.09813481106386804</v>
+      </c>
+      <c r="L6">
+        <v>-0.1043152908898386</v>
+      </c>
+      <c r="M6">
+        <v>-0.07063391787114751</v>
+      </c>
+      <c r="N6">
         <v>378.1163192646728</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>515.0290598351395</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>939.477403273257</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>261.8431191055957</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>444.2152946596028</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>4870.469770950627</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>220.3887904884043</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>134.2070758419858</v>
+      </c>
+      <c r="V6">
+        <v>314.3208320417091</v>
+      </c>
+      <c r="W6">
+        <v>72.49029749483628</v>
+      </c>
+      <c r="X6">
+        <v>2100.7132262512</v>
       </c>
     </row>
     <row r="7">
@@ -785,28 +905,46 @@
         <v>-0.0857312216590201</v>
       </c>
       <c r="K7">
+        <v>-0.3215302080624675</v>
+      </c>
+      <c r="L7">
+        <v>-0.2959373399869185</v>
+      </c>
+      <c r="M7">
+        <v>-0.09062695485969025</v>
+      </c>
+      <c r="N7">
         <v>196.5744007463097</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>376.8373734696174</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>821.253260755762</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>155.399670437517</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>330.4408234445644</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>4590.29861017085</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>243.0268122975213</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>136.3770089268309</v>
+      </c>
+      <c r="V7">
+        <v>190.9642153101355</v>
+      </c>
+      <c r="W7">
+        <v>61.36292071931979</v>
+      </c>
+      <c r="X7">
+        <v>2111.104189937172</v>
       </c>
     </row>
     <row r="8">
@@ -845,28 +983,46 @@
         <v>0.05006816229482635</v>
       </c>
       <c r="K8">
+        <v>1.208049917092319</v>
+      </c>
+      <c r="L8">
+        <v>0.398610442817352</v>
+      </c>
+      <c r="M8">
+        <v>0.2013793116950307</v>
+      </c>
+      <c r="N8">
         <v>800.4216181166797</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>742.5716639962659</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>1203.657411590432</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>559.5931613356357</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>606.4363209364503</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>5905.175975900414</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>277.895567454316</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>153.623976550563</v>
+      </c>
+      <c r="V8">
+        <v>617.5875044143796</v>
+      </c>
+      <c r="W8">
+        <v>119.3386040050728</v>
+      </c>
+      <c r="X8">
+        <v>2765.619582244754</v>
       </c>
     </row>
     <row r="9">
@@ -905,28 +1061,46 @@
         <v>0.4383012210284916</v>
       </c>
       <c r="K9">
+        <v>-0.1970029952914545</v>
+      </c>
+      <c r="L9">
+        <v>0.2878123825598929</v>
+      </c>
+      <c r="M9">
+        <v>0.1601061594375793</v>
+      </c>
+      <c r="N9">
         <v>246.0347779063418</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>415.8032830437586</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>797.3915760425326</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>183.9416373875088</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>368.3793341620412</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>5881.728553659051</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>281.9243859845163</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>201.4329871148346</v>
+      </c>
+      <c r="V9">
+        <v>223.1588870418146</v>
+      </c>
+      <c r="W9">
+        <v>102.1652387854407</v>
+      </c>
+      <c r="X9">
+        <v>2608.9724365363</v>
       </c>
     </row>
     <row r="10">
@@ -965,28 +1139,46 @@
         <v>-0.1540418463946818</v>
       </c>
       <c r="K10">
+        <v>-0.2932923993783627</v>
+      </c>
+      <c r="L10">
+        <v>-0.1521126064877225</v>
+      </c>
+      <c r="M10">
+        <v>0.1008864568138748</v>
+      </c>
+      <c r="N10">
         <v>231.1015829580677</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>364.8294467781332</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>868.8216524503613</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>182.8944372030254</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>339.2779562507618</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>6252.615426935894</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>211.9511150713174</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>123.9692872920586</v>
+      </c>
+      <c r="V10">
+        <v>204.2196149649395</v>
+      </c>
+      <c r="W10">
+        <v>71.59164867429399</v>
+      </c>
+      <c r="X10">
+        <v>2374.463666865775</v>
       </c>
     </row>
     <row r="11">
@@ -1025,28 +1217,46 @@
         <v>0.5298821146611261</v>
       </c>
       <c r="K11">
+        <v>13.89663685479925</v>
+      </c>
+      <c r="L11">
+        <v>2.829785755345316</v>
+      </c>
+      <c r="M11">
+        <v>0.2683322172488892</v>
+      </c>
+      <c r="N11">
         <v>3215.662923454875</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>1677.47213648484</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>1833.157650018498</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>2064.19761480628</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1192.451171628181</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>5662.29063961629</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>298.7736029502479</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>206.7049576611799</v>
+      </c>
+      <c r="V11">
+        <v>2380.829324778376</v>
+      </c>
+      <c r="W11">
+        <v>291.3596381009584</v>
+      </c>
+      <c r="X11">
+        <v>2817.683276216916</v>
       </c>
     </row>
     <row r="12">
@@ -1085,28 +1295,46 @@
         <v>0.616377504070473</v>
       </c>
       <c r="K12">
+        <v>13.35522828491398</v>
+      </c>
+      <c r="L12">
+        <v>3.549627761254583</v>
+      </c>
+      <c r="M12">
+        <v>1.074809204068533</v>
+      </c>
+      <c r="N12">
         <v>3671.607125926974</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>1887.458413845311</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>2050.446738078192</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>2238.255587652688</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>1318.039044156293</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>9839.870276312349</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>302.7479749477127</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>208.6423149731696</v>
+      </c>
+      <c r="V12">
+        <v>2585.012063513142</v>
+      </c>
+      <c r="W12">
+        <v>330.524704555738</v>
+      </c>
+      <c r="X12">
+        <v>4533.959909041831</v>
       </c>
     </row>
     <row r="13">
@@ -1145,28 +1373,46 @@
         <v>0.3661244339248337</v>
       </c>
       <c r="K13">
+        <v>7.637731105125786</v>
+      </c>
+      <c r="L13">
+        <v>1.472227443618796</v>
+      </c>
+      <c r="M13">
+        <v>1.374079502595779</v>
+      </c>
+      <c r="N13">
         <v>2993.413160026927</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>1629.255359160285</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>1897.810992147406</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>1756.706323618663</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>1108.282139488979</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>13493.30461027209</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>266.5934189556614</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>185.0364892100991</v>
+      </c>
+      <c r="V13">
+        <v>2007.930765822116</v>
+      </c>
+      <c r="W13">
+        <v>164.4392398566827</v>
+      </c>
+      <c r="X13">
+        <v>5312.9884472982</v>
       </c>
     </row>
     <row r="14">
@@ -1205,28 +1451,46 @@
         <v>0.3207932770364496</v>
       </c>
       <c r="K14">
+        <v>11.19270232389432</v>
+      </c>
+      <c r="L14">
+        <v>2.613440742590047</v>
+      </c>
+      <c r="M14">
+        <v>1.328060111024252</v>
+      </c>
+      <c r="N14">
         <v>2759.254213800511</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>1443.019170503714</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>1716.048329745958</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>1950.72297865327</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>1139.002209651082</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>13966.82989819951</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>254.2252509968571</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>170.4181908335849</v>
+      </c>
+      <c r="V14">
+        <v>1841.79201045663</v>
+      </c>
+      <c r="W14">
+        <v>271.8961538977549</v>
+      </c>
+      <c r="X14">
+        <v>4891.363022122986</v>
       </c>
     </row>
     <row r="15">
@@ -1265,28 +1529,46 @@
         <v>0.4498913635595247</v>
       </c>
       <c r="K15">
+        <v>2.068288253948677</v>
+      </c>
+      <c r="L15">
+        <v>2.081994559412974</v>
+      </c>
+      <c r="M15">
+        <v>1.658837584836229</v>
+      </c>
+      <c r="N15">
         <v>1191.352791471645</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>1028.40360867734</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>1739.66696184611</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>774.3042792911235</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>838.5556126742977</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>13210.61472026894</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>298.172344628739</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>197.571857892745</v>
+      </c>
+      <c r="V15">
+        <v>798.4313004328266</v>
+      </c>
+      <c r="W15">
+        <v>237.9607700211718</v>
+      </c>
+      <c r="X15">
+        <v>5558.640376895493</v>
       </c>
     </row>
     <row r="16">
@@ -1325,28 +1607,46 @@
         <v>0.09450301069132669</v>
       </c>
       <c r="K16">
+        <v>4.977408938608201</v>
+      </c>
+      <c r="L16">
+        <v>1.84831207481839</v>
+      </c>
+      <c r="M16">
+        <v>0.9160430118438226</v>
+      </c>
+      <c r="N16">
         <v>2169.248220176801</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>1228.834489808875</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>1522.573408565369</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>1339.53228877836</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>916.2806189389972</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>11477.42462049518</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>225.934841776663</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>139.9350739210653</v>
+      </c>
+      <c r="V16">
+        <v>1331.964293333081</v>
+      </c>
+      <c r="W16">
+        <v>220.5492645472421</v>
+      </c>
+      <c r="X16">
+        <v>4122.751373313126</v>
       </c>
     </row>
     <row r="17">
@@ -1385,28 +1685,46 @@
         <v>0.1014316298762416</v>
       </c>
       <c r="K17">
+        <v>0.08298522455014556</v>
+      </c>
+      <c r="L17">
+        <v>0.09349200143348019</v>
+      </c>
+      <c r="M17">
+        <v>0.2524945901458462</v>
+      </c>
+      <c r="N17">
         <v>323.2216926845007</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>529.8138768532147</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>1033.763725329244</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>270.799902555008</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>467.6409494949171</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>7357.233875892341</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>246.3831317287269</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>160.08163112113</v>
+      </c>
+      <c r="V17">
+        <v>292.9158270876403</v>
+      </c>
+      <c r="W17">
+        <v>93.15419378387131</v>
+      </c>
+      <c r="X17">
+        <v>2907.594824186402</v>
       </c>
     </row>
     <row r="18">
@@ -1445,28 +1763,46 @@
         <v>0.2083910289628028</v>
       </c>
       <c r="K18">
+        <v>0.2751483350109178</v>
+      </c>
+      <c r="L18">
+        <v>0.3079989762791938</v>
+      </c>
+      <c r="M18">
+        <v>0.7086739415882994</v>
+      </c>
+      <c r="N18">
         <v>331.863356711979</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>579.369222518368</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>1233.643303169543</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>343.2711872016446</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>506.2959614959171</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>9827.397668196951</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>294.9239717337554</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>171.5400068411684</v>
+      </c>
+      <c r="V18">
+        <v>322.5047031340507</v>
+      </c>
+      <c r="W18">
+        <v>109.1189533462665</v>
+      </c>
+      <c r="X18">
+        <v>3916.775532723852</v>
       </c>
     </row>
     <row r="19">
@@ -1505,28 +1841,46 @@
         <v>-0.2617162817081648</v>
       </c>
       <c r="K19">
+        <v>-0.1429045499827878</v>
+      </c>
+      <c r="L19">
+        <v>-0.1095334574842723</v>
+      </c>
+      <c r="M19">
+        <v>-0.226078907329023</v>
+      </c>
+      <c r="N19">
         <v>193.1846056813076</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>296.8434563418408</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>751.7123512416636</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>164.9230385340258</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>317.461507933668</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>2956.583820880666</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>178.6899004311099</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>96.06837439524921</v>
+      </c>
+      <c r="V19">
+        <v>190.5123680817786</v>
+      </c>
+      <c r="W19">
+        <v>67.74881171210841</v>
+      </c>
+      <c r="X19">
+        <v>1542.441257512375</v>
       </c>
     </row>
     <row r="20">
@@ -1565,28 +1919,46 @@
         <v>-0.06853969738452352</v>
       </c>
       <c r="K20">
+        <v>0.08314736356011539</v>
+      </c>
+      <c r="L20">
+        <v>0.4659489849454131</v>
+      </c>
+      <c r="M20">
+        <v>0.6947200234360054</v>
+      </c>
+      <c r="N20">
         <v>359.916325301588</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>634.9865579742815</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>1147.397162657268</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>276.9332480405708</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>497.5992151738896</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>8929.278660075996</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>245.8940738427335</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>134.8602449892925</v>
+      </c>
+      <c r="V20">
+        <v>310.6379925194289</v>
+      </c>
+      <c r="W20">
+        <v>118.2008724005675</v>
+      </c>
+      <c r="X20">
+        <v>3867.722315939462</v>
       </c>
     </row>
     <row r="21">
@@ -1625,28 +1997,46 @@
         <v>0.3976288131376215</v>
       </c>
       <c r="K21">
+        <v>5.367636859305019</v>
+      </c>
+      <c r="L21">
+        <v>1.103177178791124</v>
+      </c>
+      <c r="M21">
+        <v>1.57172365005535</v>
+      </c>
+      <c r="N21">
         <v>1370.051746486902</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>1068.050051203158</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>2276.837960072414</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>1163.039301479533</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>859.5358369660077</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>12232.78765817025</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>413.7963110600328</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>192.9856762880329</v>
+      </c>
+      <c r="V21">
+        <v>1099.787897798177</v>
+      </c>
+      <c r="W21">
+        <v>167.3489557714933</v>
+      </c>
+      <c r="X21">
+        <v>5883.374137898232</v>
       </c>
     </row>
     <row r="22">
@@ -1685,28 +2075,46 @@
         <v>0.01218569058490072</v>
       </c>
       <c r="K22">
+        <v>0.0006516842010123225</v>
+      </c>
+      <c r="L22">
+        <v>0.06214836384810732</v>
+      </c>
+      <c r="M22">
+        <v>0.3275398309893507</v>
+      </c>
+      <c r="N22">
         <v>330.8909441861862</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>502.2826261823112</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>948.3894807505774</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>246.750246634265</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>418.1061419093212</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>7510.76130622046</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>241.4646540454536</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>148.7492598280602</v>
+      </c>
+      <c r="V22">
+        <v>288.2406797292243</v>
+      </c>
+      <c r="W22">
+        <v>92.33856090347334</v>
+      </c>
+      <c r="X22">
+        <v>3107.619559098938</v>
       </c>
     </row>
     <row r="23">
@@ -1745,28 +2153,46 @@
         <v>-0.1408082058600014</v>
       </c>
       <c r="K23">
+        <v>-0.1524753029658212</v>
+      </c>
+      <c r="L23">
+        <v>-0.09446983746330946</v>
+      </c>
+      <c r="M23">
+        <v>0.07342777563030999</v>
+      </c>
+      <c r="N23">
         <v>268.0725835679451</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>496.7709816160278</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>960.2693049326328</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>182.9588838132562</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>402.419047889829</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>6165.811252774052</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>219.4825567877127</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>124.1744821808797</v>
+      </c>
+      <c r="V23">
+        <v>241.8049472139435</v>
+      </c>
+      <c r="W23">
+        <v>75.03045378869263</v>
+      </c>
+      <c r="X23">
+        <v>2509.457960910721</v>
       </c>
     </row>
     <row r="24">
@@ -1805,28 +2231,46 @@
         <v>-0.06104050244140818</v>
       </c>
       <c r="K24">
+        <v>1.067105282847273</v>
+      </c>
+      <c r="L24">
+        <v>1.632631185779146</v>
+      </c>
+      <c r="M24">
+        <v>0.8475300491189911</v>
+      </c>
+      <c r="N24">
         <v>814.147427545349</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>846.3198083486942</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>1349.995834177637</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>513.9607801122129</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>673.4605040539865</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>9227.603504819786</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>208.0800723335362</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>116.2361636597794</v>
+      </c>
+      <c r="V24">
+        <v>564.0788765097034</v>
+      </c>
+      <c r="W24">
+        <v>188.5373485806032</v>
+      </c>
+      <c r="X24">
+        <v>3822.00402416489</v>
       </c>
     </row>
     <row r="25">
@@ -1865,28 +2309,46 @@
         <v>0.2245700500212996</v>
       </c>
       <c r="K25">
+        <v>1.724667232595792</v>
+      </c>
+      <c r="L25">
+        <v>4.119578862515288</v>
+      </c>
+      <c r="M25">
+        <v>3.44606800188095</v>
+      </c>
+      <c r="N25">
         <v>1101.574226041245</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>1381.108952643004</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>1721.799387690186</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>760.8397070446075</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>867.4304708847681</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>20786.47167449737</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>286.9673209149806</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>167.8589137087748</v>
+      </c>
+      <c r="V25">
+        <v>743.9367330977168</v>
+      </c>
+      <c r="W25">
+        <v>368.2828752690376</v>
+      </c>
+      <c r="X25">
+        <v>8523.483329053011</v>
       </c>
     </row>
     <row r="26">
@@ -1925,28 +2387,46 @@
         <v>0.03182345967335694</v>
       </c>
       <c r="K26">
+        <v>1.600413668201746</v>
+      </c>
+      <c r="L26">
+        <v>2.384834028374878</v>
+      </c>
+      <c r="M26">
+        <v>1.895197327104226</v>
+      </c>
+      <c r="N26">
         <v>1036.282182872423</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>1157.081052886054</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>1389.184553855536</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>740.5142568767226</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>767.6075343443788</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>16721.71521148158</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>251.2520271406207</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>147.3649676597558</v>
+      </c>
+      <c r="V26">
+        <v>721.2691414490574</v>
+      </c>
+      <c r="W26">
+        <v>268.3567142375244</v>
+      </c>
+      <c r="X26">
+        <v>5719.684388904763</v>
       </c>
     </row>
     <row r="27">
@@ -1985,28 +2465,46 @@
         <v>-0.07818790313371787</v>
       </c>
       <c r="K27">
+        <v>-0.1880137456061051</v>
+      </c>
+      <c r="L27">
+        <v>0.8511199979645628</v>
+      </c>
+      <c r="M27">
+        <v>0.3171551105327745</v>
+      </c>
+      <c r="N27">
         <v>271.759595819596</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>559.4025155783231</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>987.2223668331829</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>181.1445586598331</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>461.8608322456144</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>5280.105993849719</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>228.7092763822314</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>134.8135516859047</v>
+      </c>
+      <c r="V27">
+        <v>226.9531394567311</v>
+      </c>
+      <c r="W27">
+        <v>140.6465613188441</v>
+      </c>
+      <c r="X27">
+        <v>2327.188504952599</v>
       </c>
     </row>
     <row r="28">
@@ -2045,28 +2543,46 @@
         <v>-0.04955310239922571</v>
       </c>
       <c r="K28">
+        <v>-0.2956779286245661</v>
+      </c>
+      <c r="L28">
+        <v>0.147888227983</v>
+      </c>
+      <c r="M28">
+        <v>0.02444750455494996</v>
+      </c>
+      <c r="N28">
         <v>226.4770404801585</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>440.6551067254695</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>803.5264221745607</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>161.7884251107779</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>378.8006523206381</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>4425.345301000883</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>210.7533587394366</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>132.062872144394</v>
+      </c>
+      <c r="V28">
+        <v>197.2990415699124</v>
+      </c>
+      <c r="W28">
+        <v>91.68538465335668</v>
+      </c>
+      <c r="X28">
+        <v>2052.094671642041</v>
       </c>
     </row>
     <row r="29">
@@ -2105,28 +2621,46 @@
         <v>0.2495775849843539</v>
       </c>
       <c r="K29">
+        <v>5.433082663705185</v>
+      </c>
+      <c r="L29">
+        <v>2.589744609452958</v>
+      </c>
+      <c r="M29">
+        <v>3.087138599920653</v>
+      </c>
+      <c r="N29">
         <v>2281.415476488025</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>1589.094156984068</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>2367.813285945879</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>1518.226404425491</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>1155.686554414913</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>25455.75708979835</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>323.3194426809479</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>167.0502340960317</v>
+      </c>
+      <c r="V29">
+        <v>1535.679237912509</v>
+      </c>
+      <c r="W29">
+        <v>252.3300768626571</v>
+      </c>
+      <c r="X29">
+        <v>9049.91932496383</v>
       </c>
     </row>
     <row r="30">
@@ -2165,28 +2699,46 @@
         <v>0.1353879599154463</v>
       </c>
       <c r="K30">
+        <v>3.490893102319664</v>
+      </c>
+      <c r="L30">
+        <v>1.131588909030947</v>
+      </c>
+      <c r="M30">
+        <v>0.8728132092429017</v>
+      </c>
+      <c r="N30">
         <v>1514.494780354509</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>981.9991891063653</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>1426.958312478952</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>1048.626142540307</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>787.961405808688</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>11022.87969774742</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <v>248.8057105047521</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>159.1726384264782</v>
+      </c>
+      <c r="V30">
+        <v>1080.096084872546</v>
+      </c>
+      <c r="W30">
+        <v>170.8198502986555</v>
+      </c>
+      <c r="X30">
+        <v>4287.84755540507</v>
       </c>
     </row>
     <row r="31">
@@ -2225,28 +2777,46 @@
         <v>0.07255661171385092</v>
       </c>
       <c r="K31">
+        <v>4.00283886552697</v>
+      </c>
+      <c r="L31">
+        <v>1.207417069553657</v>
+      </c>
+      <c r="M31">
+        <v>0.5717696239130009</v>
+      </c>
+      <c r="N31">
         <v>1636.65553411729</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>996.7895538491289</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>1392.289471572417</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>1135.458935836876</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>817.4073661478543</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>8639.118236408667</v>
       </c>
-      <c r="Q31">
+      <c r="T31">
         <v>223.1382236817048</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>151.4269811826271</v>
+      </c>
+      <c r="V31">
+        <v>1167.737159400137</v>
+      </c>
+      <c r="W31">
+        <v>183.704609720681</v>
+      </c>
+      <c r="X31">
+        <v>3511.871778514066</v>
       </c>
     </row>
     <row r="32">
@@ -2285,28 +2855,46 @@
         <v>0.5885892576829198</v>
       </c>
       <c r="K32">
+        <v>8.090798064444336</v>
+      </c>
+      <c r="L32">
+        <v>1.263493907647015</v>
+      </c>
+      <c r="M32">
+        <v>0.3477149538407036</v>
+      </c>
+      <c r="N32">
         <v>2314.657677814926</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>1261.506356386698</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>1250.660203933881</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>1673.823981447177</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>884.4271025813005</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>6283.622676084342</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <v>296.232926770573</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>224.4171259624228</v>
+      </c>
+      <c r="V32">
+        <v>1615.999059061063</v>
+      </c>
+      <c r="W32">
+        <v>168.3989257962942</v>
+      </c>
+      <c r="X32">
+        <v>2831.196012205148</v>
       </c>
     </row>
     <row r="33">
@@ -2345,28 +2933,46 @@
         <v>0.1915248804307272</v>
       </c>
       <c r="K33">
+        <v>7.884347061214418</v>
+      </c>
+      <c r="L33">
+        <v>1.558700197600415</v>
+      </c>
+      <c r="M33">
+        <v>0.01617383968106664</v>
+      </c>
+      <c r="N33">
         <v>2340.514993659183</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>1223.614427270734</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>1490.722452090636</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>1516.604721104105</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>968.8199025991599</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>4147.735229067343</v>
       </c>
-      <c r="Q33">
+      <c r="T33">
         <v>262.8478961719857</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>169.4120662502251</v>
+      </c>
+      <c r="V33">
+        <v>1668.788555177963</v>
+      </c>
+      <c r="W33">
+        <v>180.3290887104523</v>
+      </c>
+      <c r="X33">
+        <v>2037.537143639387</v>
       </c>
     </row>
     <row r="34">
@@ -2405,28 +3011,46 @@
         <v>0.5021435494326213</v>
       </c>
       <c r="K34">
+        <v>0.008650164458932066</v>
+      </c>
+      <c r="L34">
+        <v>0.3716471428406143</v>
+      </c>
+      <c r="M34">
+        <v>1.022958143748525</v>
+      </c>
+      <c r="N34">
         <v>325.3783125221683</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>500.893157180158</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>961.330111498923</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>242.6176188504557</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>441.3178636353562</v>
       </c>
-      <c r="P34">
+      <c r="S34">
         <v>10059.79881636455</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <v>285.0292095879738</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>198.5512786569955</v>
+      </c>
+      <c r="V34">
+        <v>289.2573267898168</v>
+      </c>
+      <c r="W34">
+        <v>114.3127296923482</v>
+      </c>
+      <c r="X34">
+        <v>4562.389682029423</v>
       </c>
     </row>
     <row r="35">
@@ -2465,28 +3089,46 @@
         <v>0.08261282290868488</v>
       </c>
       <c r="K35">
+        <v>1.253680250996729</v>
+      </c>
+      <c r="L35">
+        <v>2.194446135673523</v>
+      </c>
+      <c r="M35">
+        <v>0.9950236622854715</v>
+      </c>
+      <c r="N35">
         <v>916.1011938017145</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>904.6182500411036</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>1205.586883027229</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>535.2266297839204</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>704.4409339930703</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>8305.171326954975</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
         <v>228.0058063945586</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <v>151.6520471874144</v>
+      </c>
+      <c r="V35">
+        <v>637.7918177523533</v>
+      </c>
+      <c r="W35">
+        <v>223.4771439317817</v>
+      </c>
+      <c r="X35">
+        <v>3630.130672909551</v>
       </c>
     </row>
     <row r="36">
@@ -2525,28 +3167,46 @@
         <v>-0.07532627688664358</v>
       </c>
       <c r="K36">
+        <v>0.1327819192139505</v>
+      </c>
+      <c r="L36">
+        <v>0.7246880308141892</v>
+      </c>
+      <c r="M36">
+        <v>1.353035015418383</v>
+      </c>
+      <c r="N36">
         <v>409.8686596711564</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>695.258864855648</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <v>1153.785272388877</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <v>284.132836697708</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>515.0071361698539</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <v>13062.75429907703</v>
       </c>
-      <c r="Q36">
+      <c r="T36">
         <v>223.1882055488574</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>130.7038681689506</v>
+      </c>
+      <c r="V36">
+        <v>320.0398700592016</v>
+      </c>
+      <c r="W36">
+        <v>138.0533071375945</v>
+      </c>
+      <c r="X36">
+        <v>4845.084557267896</v>
       </c>
     </row>
     <row r="37">
@@ -2585,28 +3245,46 @@
         <v>-0.1160410475013865</v>
       </c>
       <c r="K37">
+        <v>0.07112566841480382</v>
+      </c>
+      <c r="L37">
+        <v>0.4875829207656884</v>
+      </c>
+      <c r="M37">
+        <v>0.9779959294319261</v>
+      </c>
+      <c r="N37">
         <v>375.4775119097408</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>656.1045038719909</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>1050.752555902028</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>255.7463854556667</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>477.626500994777</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>10831.16714041404</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <v>208.1153846044711</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>124.1845461658971</v>
+      </c>
+      <c r="V37">
+        <v>309.2411052553825</v>
+      </c>
+      <c r="W37">
+        <v>126.6648056449136</v>
+      </c>
+      <c r="X37">
+        <v>4081.918548153743</v>
       </c>
     </row>
     <row r="38">
@@ -2645,28 +3323,46 @@
         <v>0.07412404075614681</v>
       </c>
       <c r="K38">
+        <v>0.4580949237458353</v>
+      </c>
+      <c r="L38">
+        <v>0.3403486592684073</v>
+      </c>
+      <c r="M38">
+        <v>0.5951284021360919</v>
+      </c>
+      <c r="N38">
         <v>499.3288073202037</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>655.4283787471031</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>1156.758664589048</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>387.2275040791113</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>499.4835787763428</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>9454.177666696358</v>
       </c>
-      <c r="Q38">
+      <c r="T38">
         <v>249.301079707261</v>
       </c>
-      <c r="R38">
+      <c r="U38">
         <v>155.9095552290154</v>
+      </c>
+      <c r="V38">
+        <v>416.2517983601989</v>
+      </c>
+      <c r="W38">
+        <v>115.8235340636953</v>
+      </c>
+      <c r="X38">
+        <v>3677.071087014819</v>
       </c>
     </row>
     <row r="39">
@@ -2705,28 +3401,46 @@
         <v>0.2420012053765543</v>
       </c>
       <c r="K39">
+        <v>0.4221422123037823</v>
+      </c>
+      <c r="L39">
+        <v>0.418251527480703</v>
+      </c>
+      <c r="M39">
+        <v>1.146974042309496</v>
+      </c>
+      <c r="N39">
         <v>467.6586793990039</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>682.0370697576324</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>1331.017565218679</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <v>363.4502020491741</v>
       </c>
-      <c r="O39">
+      <c r="R39">
         <v>514.7433855832533</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>10496.50055363787</v>
       </c>
-      <c r="Q39">
+      <c r="T39">
         <v>293.3929290006706</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>176.1669542827539</v>
+      </c>
+      <c r="V39">
+        <v>409.927303628561</v>
+      </c>
+      <c r="W39">
+        <v>120.0919599634691</v>
+      </c>
+      <c r="X39">
+        <v>4975.726083684759</v>
       </c>
     </row>
     <row r="40">
@@ -2765,28 +3479,46 @@
         <v>0.3284989617377246</v>
       </c>
       <c r="K40">
+        <v>12.78034637192837</v>
+      </c>
+      <c r="L40">
+        <v>1.436370731160975</v>
+      </c>
+      <c r="M40">
+        <v>0.1861150874605626</v>
+      </c>
+      <c r="N40">
         <v>2395.903889686456</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>1187.090679066703</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <v>1484.355723888378</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <v>1745.140843430201</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>941.7321279881554</v>
       </c>
-      <c r="P40">
+      <c r="S40">
         <v>5634.623775214321</v>
       </c>
-      <c r="Q40">
+      <c r="T40">
         <v>284.4353684015013</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>180.2642668791957</v>
+      </c>
+      <c r="V40">
+        <v>1735.139597381134</v>
+      </c>
+      <c r="W40">
+        <v>192.6513116562442</v>
+      </c>
+      <c r="X40">
+        <v>2718.217173570037</v>
       </c>
     </row>
     <row r="41">
@@ -2825,28 +3557,46 @@
         <v>0.2422737303381524</v>
       </c>
       <c r="K41">
+        <v>4.591247306087046</v>
+      </c>
+      <c r="L41">
+        <v>1.063598010883426</v>
+      </c>
+      <c r="M41">
+        <v>-0.09905235521165132</v>
+      </c>
+      <c r="N41">
         <v>496.7465169447378</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>532.3846031611255</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>747.941810582028</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>418.4033650247579</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>491.7466406439094</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>3241.035284945153</v>
       </c>
-      <c r="Q41">
+      <c r="T41">
         <v>234.4379852925505</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>162.1597371071528</v>
+      </c>
+      <c r="V41">
+        <v>425.8079177151654</v>
+      </c>
+      <c r="W41">
+        <v>159.6261565400943</v>
+      </c>
+      <c r="X41">
+        <v>1790.621394352578</v>
       </c>
     </row>
     <row r="42">
@@ -2885,28 +3635,46 @@
         <v>0.1662799959891426</v>
       </c>
       <c r="K42">
+        <v>0.558762819824994</v>
+      </c>
+      <c r="L42">
+        <v>0.6509034858180569</v>
+      </c>
+      <c r="M42">
+        <v>0.1478869468255462</v>
+      </c>
+      <c r="N42">
         <v>585.6656828911188</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>631.7784002138899</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>1122.341851962365</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>391.9960522903018</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>568.2292475363452</v>
       </c>
-      <c r="P42">
+      <c r="S42">
         <v>6241.09596672491</v>
       </c>
-      <c r="Q42">
+      <c r="T42">
         <v>255.811675859534</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <v>172.018425092264</v>
+      </c>
+      <c r="V42">
+        <v>445.4900600527835</v>
+      </c>
+      <c r="W42">
+        <v>132.1669605173099</v>
+      </c>
+      <c r="X42">
+        <v>2677.136527432157</v>
       </c>
     </row>
     <row r="43">
@@ -2945,28 +3713,46 @@
         <v>0.06059575830375595</v>
       </c>
       <c r="K43">
+        <v>1.134224716356941</v>
+      </c>
+      <c r="L43">
+        <v>0.2987682824295592</v>
+      </c>
+      <c r="M43">
+        <v>0.7488326589074473</v>
+      </c>
+      <c r="N43">
         <v>754.3267632840902</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>702.138700424549</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <v>1335.425733578575</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <v>517.3673936419673</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>567.64398878383</v>
       </c>
-      <c r="P43">
+      <c r="S43">
         <v>10310.68987699262</v>
       </c>
-      <c r="Q43">
+      <c r="T43">
         <v>238.6626288732957</v>
       </c>
-      <c r="R43">
+      <c r="U43">
         <v>150.109278961791</v>
+      </c>
+      <c r="V43">
+        <v>574.8757690417835</v>
+      </c>
+      <c r="W43">
+        <v>108.9410081294199</v>
+      </c>
+      <c r="X43">
+        <v>3986.840077154315</v>
       </c>
     </row>
     <row r="44">
@@ -3005,28 +3791,46 @@
         <v>0.07688916492041113</v>
       </c>
       <c r="K44">
+        <v>9.265668738971737</v>
+      </c>
+      <c r="L44">
+        <v>1.850325661059281</v>
+      </c>
+      <c r="M44">
+        <v>0.6255000564262154</v>
+      </c>
+      <c r="N44">
         <v>2272.695654251297</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>1278.142432337794</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>1697.245008137549</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>1631.81030236462</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>933.0353553441597</v>
       </c>
-      <c r="P44">
+      <c r="S44">
         <v>9369.466751440219</v>
       </c>
-      <c r="Q44">
+      <c r="T44">
         <v>279.6205880989713</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <v>149.7504556396029</v>
+      </c>
+      <c r="V44">
+        <v>1673.543641910555</v>
+      </c>
+      <c r="W44">
+        <v>209.6574216113067</v>
+      </c>
+      <c r="X44">
+        <v>3786.334948787694</v>
       </c>
     </row>
     <row r="45">
@@ -3065,28 +3869,46 @@
         <v>0.07447827148031044</v>
       </c>
       <c r="K45">
+        <v>8.955638723528791</v>
+      </c>
+      <c r="L45">
+        <v>2.481344851234948</v>
+      </c>
+      <c r="M45">
+        <v>0.4087394996665619</v>
+      </c>
+      <c r="N45">
         <v>2941.328401543354</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>1492.129307808774</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>1872.166820158661</v>
       </c>
-      <c r="N45">
+      <c r="Q45">
         <v>1830.880785505908</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>1110.944487813619</v>
       </c>
-      <c r="P45">
+      <c r="S45">
         <v>8338.957987394766</v>
       </c>
-      <c r="Q45">
+      <c r="T45">
         <v>273.5039583335493</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <v>141.6381603022482</v>
+      </c>
+      <c r="V45">
+        <v>2084.867405323401</v>
+      </c>
+      <c r="W45">
+        <v>234.5837136938404</v>
+      </c>
+      <c r="X45">
+        <v>3269.84771852987</v>
       </c>
     </row>
     <row r="46">
@@ -3125,28 +3947,46 @@
         <v>0.08162521302181341</v>
       </c>
       <c r="K46">
+        <v>0.4752839173204463</v>
+      </c>
+      <c r="L46">
+        <v>0.4796849181430348</v>
+      </c>
+      <c r="M46">
+        <v>0.8191917174802388</v>
+      </c>
+      <c r="N46">
         <v>514.0165268384802</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>619.0152143680709</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>1366.262194268107</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>342.1386897464419</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>520.1158492518909</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>10818.85268708173</v>
       </c>
-      <c r="Q46">
+      <c r="T46">
         <v>236.5523863001163</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <v>153.7960927942974</v>
+      </c>
+      <c r="V46">
+        <v>412.7583594679804</v>
+      </c>
+      <c r="W46">
+        <v>124.320923314878</v>
+      </c>
+      <c r="X46">
+        <v>3887.073859343707</v>
       </c>
     </row>
     <row r="47">
@@ -3185,28 +4025,46 @@
         <v>0.4626659758388739</v>
       </c>
       <c r="K47">
+        <v>6.671920146506288</v>
+      </c>
+      <c r="L47">
+        <v>2.798524589205405</v>
+      </c>
+      <c r="M47">
+        <v>0.8757807128427809</v>
+      </c>
+      <c r="N47">
         <v>2919.818843538169</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>1575.071504212343</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>2184.686886797322</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <v>1332.07697114253</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>1284.097643972423</v>
       </c>
-      <c r="P47">
+      <c r="S47">
         <v>9264.384545061817</v>
       </c>
-      <c r="Q47">
+      <c r="T47">
         <v>278.1587045770896</v>
       </c>
-      <c r="R47">
+      <c r="U47">
         <v>188.6167948194935</v>
+      </c>
+      <c r="V47">
+        <v>1824.576836654473</v>
+      </c>
+      <c r="W47">
+        <v>226.6346780912596</v>
+      </c>
+      <c r="X47">
+        <v>4264.13494432822</v>
       </c>
     </row>
     <row r="48">
@@ -3245,28 +4103,46 @@
         <v>0.3099303253447401</v>
       </c>
       <c r="K48">
+        <v>9.677307247059394</v>
+      </c>
+      <c r="L48">
+        <v>2.295712472762461</v>
+      </c>
+      <c r="M48">
+        <v>0.3928324494264978</v>
+      </c>
+      <c r="N48">
         <v>2937.854545364853</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>1431.314322080825</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>1728.301333166716</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <v>1882.171670585344</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>1093.875638423279</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>6861.547009745235</v>
       </c>
-      <c r="Q48">
+      <c r="T48">
         <v>273.0035912792255</v>
       </c>
-      <c r="R48">
+      <c r="U48">
         <v>175.693269241969</v>
+      </c>
+      <c r="V48">
+        <v>2017.280791668214</v>
+      </c>
+      <c r="W48">
+        <v>202.6051881048896</v>
+      </c>
+      <c r="X48">
+        <v>3088.885283274677</v>
       </c>
     </row>
     <row r="49">
@@ -3305,28 +4181,46 @@
         <v>-0.09005786413385128</v>
       </c>
       <c r="K49">
+        <v>0.8143843887351045</v>
+      </c>
+      <c r="L49">
+        <v>0.1347989127229686</v>
+      </c>
+      <c r="M49">
+        <v>-0.3549978522862737</v>
+      </c>
+      <c r="N49">
         <v>637.5651030680664</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>632.5147184696485</v>
       </c>
-      <c r="M49">
+      <c r="P49">
         <v>1082.494560658113</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
         <v>429.8168316633848</v>
       </c>
-      <c r="O49">
+      <c r="R49">
         <v>535.8964191185567</v>
       </c>
-      <c r="P49">
+      <c r="S49">
         <v>3069.577199433737</v>
       </c>
-      <c r="Q49">
+      <c r="T49">
         <v>222.723066003248</v>
       </c>
-      <c r="R49">
+      <c r="U49">
         <v>134.8091604398882</v>
+      </c>
+      <c r="V49">
+        <v>512.8970813315815</v>
+      </c>
+      <c r="W49">
+        <v>94.22077796985413</v>
+      </c>
+      <c r="X49">
+        <v>1477.256630686801</v>
       </c>
     </row>
     <row r="50">
@@ -3365,28 +4259,46 @@
         <v>0.321965162596455</v>
       </c>
       <c r="K50">
+        <v>1.213180750478769</v>
+      </c>
+      <c r="L50">
+        <v>0.5993522277751886</v>
+      </c>
+      <c r="M50">
+        <v>-0.08205745741785067</v>
+      </c>
+      <c r="N50">
         <v>793.8542155645388</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>699.4472445840265</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>1196.484788533775</v>
       </c>
-      <c r="N50">
+      <c r="Q50">
         <v>539.9675726817172</v>
       </c>
-      <c r="O50">
+      <c r="R50">
         <v>609.7200930244898</v>
       </c>
-      <c r="P50">
+      <c r="S50">
         <v>3860.528240300652</v>
       </c>
-      <c r="Q50">
+      <c r="T50">
         <v>277.9105654333766</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <v>191.3556363382987</v>
+      </c>
+      <c r="V50">
+        <v>626.1991560263154</v>
+      </c>
+      <c r="W50">
+        <v>135.7771598418796</v>
+      </c>
+      <c r="X50">
+        <v>1987.336616930496</v>
       </c>
     </row>
     <row r="51">
@@ -3425,28 +4337,46 @@
         <v>0.03126034544570126</v>
       </c>
       <c r="K51">
+        <v>1.126050654252567</v>
+      </c>
+      <c r="L51">
+        <v>1.251368470138523</v>
+      </c>
+      <c r="M51">
+        <v>0.2165004431086702</v>
+      </c>
+      <c r="N51">
         <v>799.2528409370996</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>766.7439782963395</v>
       </c>
-      <c r="M51">
+      <c r="P51">
         <v>1269.662264487247</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <v>552.360108473375</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>661.5853519262652</v>
       </c>
-      <c r="P51">
+      <c r="S51">
         <v>5321.515304389917</v>
       </c>
-      <c r="Q51">
+      <c r="T51">
         <v>236.6623449767736</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>144.6495712596824</v>
+      </c>
+      <c r="V51">
+        <v>596.2631382090476</v>
+      </c>
+      <c r="W51">
+        <v>168.2554887729626</v>
+      </c>
+      <c r="X51">
+        <v>2534.965494205943</v>
       </c>
     </row>
     <row r="52">
@@ -3485,28 +4415,46 @@
         <v>-0.01545543984063085</v>
       </c>
       <c r="K52">
+        <v>0.1091621474926972</v>
+      </c>
+      <c r="L52">
+        <v>0.2044588619327017</v>
+      </c>
+      <c r="M52">
+        <v>-0.2716832077921833</v>
+      </c>
+      <c r="N52">
         <v>353.2866130549967</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>406.6678421497552</v>
       </c>
-      <c r="M52">
+      <c r="P52">
         <v>818.1256112562277</v>
       </c>
-      <c r="N52">
+      <c r="Q52">
         <v>242.8539473234275</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>396.9770250860767</v>
       </c>
-      <c r="P52">
+      <c r="S52">
         <v>2745.418344298273</v>
       </c>
-      <c r="Q52">
+      <c r="T52">
         <v>221.6444921731146</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <v>134.464504939478</v>
+      </c>
+      <c r="V52">
+        <v>300.7438114840282</v>
+      </c>
+      <c r="W52">
+        <v>100.3474642310069</v>
+      </c>
+      <c r="X52">
+        <v>1518.808540490218</v>
       </c>
     </row>
     <row r="53">
@@ -3545,28 +4493,46 @@
         <v>0.4076821061981323</v>
       </c>
       <c r="K53">
+        <v>16.70388450024288</v>
+      </c>
+      <c r="L53">
+        <v>1.485454473493128</v>
+      </c>
+      <c r="M53">
+        <v>0.1145251398474708</v>
+      </c>
+      <c r="N53">
         <v>2825.068568696799</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>1314.254074784011</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>1554.017446055443</v>
       </c>
-      <c r="N53">
+      <c r="Q53">
         <v>1940.893398163057</v>
       </c>
-      <c r="O53">
+      <c r="R53">
         <v>1028.878256913122</v>
       </c>
-      <c r="P53">
+      <c r="S53">
         <v>4931.215988920078</v>
       </c>
-      <c r="Q53">
+      <c r="T53">
         <v>257.1597734864803</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <v>170.5710530838363</v>
+      </c>
+      <c r="V53">
+        <v>2203.830370764521</v>
+      </c>
+      <c r="W53">
+        <v>184.5368420517242</v>
+      </c>
+      <c r="X53">
+        <v>2455.098998874063</v>
       </c>
     </row>
     <row r="54">
@@ -3605,28 +4571,46 @@
         <v>0.3773862076078064</v>
       </c>
       <c r="K54">
+        <v>12.25700161263532</v>
+      </c>
+      <c r="L54">
+        <v>1.766145136658386</v>
+      </c>
+      <c r="M54">
+        <v>0.2458626139916918</v>
+      </c>
+      <c r="N54">
         <v>2358.566644787228</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>1307.608249871773</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>1500.324119481756</v>
       </c>
-      <c r="N54">
+      <c r="Q54">
         <v>1639.631818654975</v>
       </c>
-      <c r="O54">
+      <c r="R54">
         <v>1030.951512598201</v>
       </c>
-      <c r="P54">
+      <c r="S54">
         <v>5387.760055367001</v>
       </c>
-      <c r="Q54">
+      <c r="T54">
         <v>244.0567605787138</v>
       </c>
-      <c r="R54">
+      <c r="U54">
         <v>166.2916601734866</v>
+      </c>
+      <c r="V54">
+        <v>1813.185338359201</v>
+      </c>
+      <c r="W54">
+        <v>201.6004478330321</v>
+      </c>
+      <c r="X54">
+        <v>2650.493060118621</v>
       </c>
     </row>
     <row r="55">
@@ -3665,28 +4649,46 @@
         <v>0.2661137428750955</v>
       </c>
       <c r="K55">
+        <v>5.186182073647332</v>
+      </c>
+      <c r="L55">
+        <v>1.672641119245849</v>
+      </c>
+      <c r="M55">
+        <v>0.6601520954918468</v>
+      </c>
+      <c r="N55">
         <v>2134.43982541212</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>1117.889326102384</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>1541.899760050536</v>
       </c>
-      <c r="N55">
+      <c r="Q55">
         <v>1413.136552438486</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>871.6184116432667</v>
       </c>
-      <c r="P55">
+      <c r="S55">
         <v>10616.50794991243</v>
       </c>
-      <c r="Q55">
+      <c r="T55">
         <v>249.8113553016436</v>
       </c>
-      <c r="R55">
+      <c r="U55">
         <v>172.906872738639</v>
+      </c>
+      <c r="V55">
+        <v>1424.347556216599</v>
+      </c>
+      <c r="W55">
+        <v>207.2880429902489</v>
+      </c>
+      <c r="X55">
+        <v>3662.247416780932</v>
       </c>
     </row>
     <row r="56">
@@ -3725,28 +4727,46 @@
         <v>0.20049190191382</v>
       </c>
       <c r="K56">
+        <v>3.504216853402739</v>
+      </c>
+      <c r="L56">
+        <v>1.077098527437906</v>
+      </c>
+      <c r="M56">
+        <v>0.4888059177791193</v>
+      </c>
+      <c r="N56">
         <v>1685.047948483337</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>991.9203550377035</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>1550.997740932175</v>
       </c>
-      <c r="N56">
+      <c r="Q56">
         <v>986.5556278624367</v>
       </c>
-      <c r="O56">
+      <c r="R56">
         <v>811.2096106566927</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>8316.976353665741</v>
       </c>
-      <c r="Q56">
+      <c r="T56">
         <v>259.2938436532091</v>
       </c>
-      <c r="R56">
+      <c r="U56">
         <v>166.9582466153429</v>
+      </c>
+      <c r="V56">
+        <v>1156.05828728542</v>
+      </c>
+      <c r="W56">
+        <v>163.4289216289964</v>
+      </c>
+      <c r="X56">
+        <v>3497.915131641557</v>
       </c>
     </row>
     <row r="57">
@@ -3785,28 +4805,46 @@
         <v>0.1877458414801274</v>
       </c>
       <c r="K57">
+        <v>2.576520653670315</v>
+      </c>
+      <c r="L57">
+        <v>1.061581199006121</v>
+      </c>
+      <c r="M57">
+        <v>-0.04465178335600962</v>
+      </c>
+      <c r="N57">
         <v>1227.00920953269</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>750.1771434328655</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>1078.057276998107</v>
       </c>
-      <c r="N57">
+      <c r="Q57">
         <v>811.8467707314641</v>
       </c>
-      <c r="O57">
+      <c r="R57">
         <v>677.202671674765</v>
       </c>
-      <c r="P57">
+      <c r="S57">
         <v>5233.922218907511</v>
       </c>
-      <c r="Q57">
+      <c r="T57">
         <v>224.4484898957188</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <v>173.1834375419172</v>
+      </c>
+      <c r="V57">
+        <v>855.8058381510392</v>
+      </c>
+      <c r="W57">
+        <v>169.2239693138847</v>
+      </c>
+      <c r="X57">
+        <v>2138.843025603387</v>
       </c>
     </row>
     <row r="58">
@@ -3845,28 +4883,46 @@
         <v>-0.006218125228404926</v>
       </c>
       <c r="K58">
+        <v>1.9016223078011</v>
+      </c>
+      <c r="L58">
+        <v>0.7224062285189604</v>
+      </c>
+      <c r="M58">
+        <v>-0.350056006483953</v>
+      </c>
+      <c r="N58">
         <v>885.3105161335524</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>600.5048164840356</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>882.3859812248147</v>
       </c>
-      <c r="N58">
+      <c r="Q58">
         <v>594.8319780562477</v>
       </c>
-      <c r="O58">
+      <c r="R58">
         <v>575.6692444944835</v>
       </c>
-      <c r="P58">
+      <c r="S58">
         <v>3367.918864593429</v>
       </c>
-      <c r="Q58">
+      <c r="T58">
         <v>194.6112269100714</v>
       </c>
-      <c r="R58">
+      <c r="U58">
         <v>144.3821364261645</v>
+      </c>
+      <c r="V58">
+        <v>655.701730020687</v>
+      </c>
+      <c r="W58">
+        <v>140.4903399279553</v>
+      </c>
+      <c r="X58">
+        <v>1475.346895438301</v>
       </c>
     </row>
     <row r="59">
@@ -3905,28 +4961,46 @@
         <v>0.08276336920223544</v>
       </c>
       <c r="K59">
+        <v>0.1596806649261429</v>
+      </c>
+      <c r="L59">
+        <v>1.081101109912892</v>
+      </c>
+      <c r="M59">
+        <v>0.3301890190901812</v>
+      </c>
+      <c r="N59">
         <v>433.4881703935004</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>659.4182244668507</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>1128.967251822399</v>
       </c>
-      <c r="N59">
+      <c r="Q59">
         <v>293.8039571273503</v>
       </c>
-      <c r="O59">
+      <c r="R59">
         <v>519.3868511687109</v>
       </c>
-      <c r="P59">
+      <c r="S59">
         <v>5864.592888473469</v>
       </c>
-      <c r="Q59">
+      <c r="T59">
         <v>229.3107662672966</v>
       </c>
-      <c r="R59">
+      <c r="U59">
         <v>151.5246099047885</v>
+      </c>
+      <c r="V59">
+        <v>336.8950033767551</v>
+      </c>
+      <c r="W59">
+        <v>159.3917831125723</v>
+      </c>
+      <c r="X59">
+        <v>2593.525729825565</v>
       </c>
     </row>
     <row r="60">
@@ -3965,28 +5039,46 @@
         <v>-0.07323464471681254</v>
       </c>
       <c r="K60">
+        <v>-0.02445877854829521</v>
+      </c>
+      <c r="L60">
+        <v>0.5838540579824665</v>
+      </c>
+      <c r="M60">
+        <v>-0.03876425445022229</v>
+      </c>
+      <c r="N60">
         <v>344.3830292905839</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>503.3829398787816</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>977.7423595995996</v>
       </c>
-      <c r="N60">
+      <c r="Q60">
         <v>227.7423960351607</v>
       </c>
-      <c r="O60">
+      <c r="R60">
         <v>458.4613388040514</v>
       </c>
-      <c r="P60">
+      <c r="S60">
         <v>4669.630104826918</v>
       </c>
-      <c r="Q60">
+      <c r="T60">
         <v>230.9556279721056</v>
       </c>
-      <c r="R60">
+      <c r="U60">
         <v>133.985852184099</v>
+      </c>
+      <c r="V60">
+        <v>276.8791094132306</v>
+      </c>
+      <c r="W60">
+        <v>131.5554186127538</v>
+      </c>
+      <c r="X60">
+        <v>2109.993123347209</v>
       </c>
     </row>
     <row r="61">
@@ -4025,28 +5117,46 @@
         <v>0.7814967341987583</v>
       </c>
       <c r="K61">
+        <v>20.1308027406065</v>
+      </c>
+      <c r="L61">
+        <v>5.524596419093391</v>
+      </c>
+      <c r="M61">
+        <v>0.7633376882570736</v>
+      </c>
+      <c r="N61">
         <v>3776.207560159188</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>1931.966229868697</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>1847.114786207425</v>
       </c>
-      <c r="N61">
+      <c r="Q61">
         <v>2627.173398603046</v>
       </c>
-      <c r="O61">
+      <c r="R61">
         <v>1440.574994918072</v>
       </c>
-      <c r="P61">
+      <c r="S61">
         <v>7937.796094185645</v>
       </c>
-      <c r="Q61">
+      <c r="T61">
         <v>305.0598534637596</v>
       </c>
-      <c r="R61">
+      <c r="U61">
         <v>215.2926776989417</v>
+      </c>
+      <c r="V61">
+        <v>2638.045901845818</v>
+      </c>
+      <c r="W61">
+        <v>412.5566849849386</v>
+      </c>
+      <c r="X61">
+        <v>3388.529769333931</v>
       </c>
     </row>
     <row r="62">
@@ -4085,28 +5195,46 @@
         <v>0.5329036688846558</v>
       </c>
       <c r="K62">
+        <v>20.73102355781737</v>
+      </c>
+      <c r="L62">
+        <v>5.212346610962782</v>
+      </c>
+      <c r="M62">
+        <v>0.8263726233902087</v>
+      </c>
+      <c r="N62">
         <v>3426.806534777282</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>1747.872163912429</v>
       </c>
-      <c r="M62">
+      <c r="P62">
         <v>1832.437439752264</v>
       </c>
-      <c r="N62">
+      <c r="Q62">
         <v>2500.703077156387</v>
       </c>
-      <c r="O62">
+      <c r="R62">
         <v>1295.135435181112</v>
       </c>
-      <c r="P62">
+      <c r="S62">
         <v>8000.024490497706</v>
       </c>
-      <c r="Q62">
+      <c r="T62">
         <v>285.4492294818035</v>
       </c>
-      <c r="R62">
+      <c r="U62">
         <v>192.5972407642993</v>
+      </c>
+      <c r="V62">
+        <v>2464.933147998723</v>
+      </c>
+      <c r="W62">
+        <v>398.2548919799545</v>
+      </c>
+      <c r="X62">
+        <v>3458.460815389563</v>
       </c>
     </row>
     <row r="63">
@@ -4145,28 +5273,46 @@
         <v>0.3140124346534445</v>
       </c>
       <c r="K63">
+        <v>9.767384660638042</v>
+      </c>
+      <c r="L63">
+        <v>1.931250694301245</v>
+      </c>
+      <c r="M63">
+        <v>0.3252824519376653</v>
+      </c>
+      <c r="N63">
         <v>3106.062452000145</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>1556.033906964041</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>1593.320655480549</v>
       </c>
-      <c r="N63">
+      <c r="Q63">
         <v>2010.366085986865</v>
       </c>
-      <c r="O63">
+      <c r="R63">
         <v>1062.610771464213</v>
       </c>
-      <c r="P63">
+      <c r="S63">
         <v>8087.792190562583</v>
       </c>
-      <c r="Q63">
+      <c r="T63">
         <v>236.0278040218136</v>
       </c>
-      <c r="R63">
+      <c r="U63">
         <v>176.5401622715965</v>
+      </c>
+      <c r="V63">
+        <v>2272.639590921806</v>
+      </c>
+      <c r="W63">
+        <v>221.2275310864947</v>
+      </c>
+      <c r="X63">
+        <v>2969.777942041299</v>
       </c>
     </row>
     <row r="64">
@@ -4205,28 +5351,46 @@
         <v>0.6424122258309468</v>
       </c>
       <c r="K64">
+        <v>8.64378027949253</v>
+      </c>
+      <c r="L64">
+        <v>2.28925364646254</v>
+      </c>
+      <c r="M64">
+        <v>-0.09182863112897015</v>
+      </c>
+      <c r="N64">
         <v>2700.403584146221</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>1370.587068534677</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>1500.837801296049</v>
       </c>
-      <c r="N64">
+      <c r="Q64">
         <v>1665.021814883963</v>
       </c>
-      <c r="O64">
+      <c r="R64">
         <v>1054.435208652026</v>
       </c>
-      <c r="P64">
+      <c r="S64">
         <v>3970.643024493585</v>
       </c>
-      <c r="Q64">
+      <c r="T64">
         <v>277.3588939435015</v>
       </c>
-      <c r="R64">
+      <c r="U64">
         <v>214.3736413130556</v>
+      </c>
+      <c r="V64">
+        <v>2015.039914884044</v>
+      </c>
+      <c r="W64">
+        <v>220.8678639302718</v>
+      </c>
+      <c r="X64">
+        <v>1969.523567292991</v>
       </c>
     </row>
     <row r="65">
@@ -4265,28 +5429,46 @@
         <v>-0.03929399269636942</v>
       </c>
       <c r="K65">
+        <v>0.2677520796819326</v>
+      </c>
+      <c r="L65">
+        <v>0.2299249331232484</v>
+      </c>
+      <c r="M65">
+        <v>-0.1657767532490727</v>
+      </c>
+      <c r="N65">
         <v>466.0186753489054</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>491.0949368912478</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>890.4264773449116</v>
       </c>
-      <c r="N65">
+      <c r="Q65">
         <v>321.7654522377534</v>
       </c>
-      <c r="O65">
+      <c r="R65">
         <v>465.967683909825</v>
       </c>
-      <c r="P65">
+      <c r="S65">
         <v>4459.751753144623</v>
       </c>
-      <c r="Q65">
+      <c r="T65">
         <v>213.3039253710668</v>
       </c>
-      <c r="R65">
+      <c r="U65">
         <v>139.2415957663878</v>
+      </c>
+      <c r="V65">
+        <v>360.8588512849875</v>
+      </c>
+      <c r="W65">
+        <v>105.8853146446978</v>
+      </c>
+      <c r="X65">
+        <v>1898.898244552019</v>
       </c>
     </row>
     <row r="66">
@@ -4325,28 +5507,46 @@
         <v>0.08626785370215323</v>
       </c>
       <c r="K66">
+        <v>0.2641223146872822</v>
+      </c>
+      <c r="L66">
+        <v>0.2369277928753322</v>
+      </c>
+      <c r="M66">
+        <v>0.1154451194713567</v>
+      </c>
+      <c r="N66">
         <v>458.525330884475</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <v>514.9537428986407</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>931.0017653317784</v>
       </c>
-      <c r="N66">
+      <c r="Q66">
         <v>310.1566849842677</v>
       </c>
-      <c r="O66">
+      <c r="R66">
         <v>478.1614229679927</v>
       </c>
-      <c r="P66">
+      <c r="S66">
         <v>5382.270732795922</v>
       </c>
-      <c r="Q66">
+      <c r="T66">
         <v>219.3506409770007</v>
       </c>
-      <c r="R66">
+      <c r="U66">
         <v>154.9490721802761</v>
+      </c>
+      <c r="V66">
+        <v>363.2277852922509</v>
+      </c>
+      <c r="W66">
+        <v>107.6226528644666</v>
+      </c>
+      <c r="X66">
+        <v>2465.613411265186</v>
       </c>
     </row>
     <row r="67">
@@ -4385,28 +5585,46 @@
         <v>0.4423069266967588</v>
       </c>
       <c r="K67">
+        <v>17.38915067445289</v>
+      </c>
+      <c r="L67">
+        <v>1.555162645290538</v>
+      </c>
+      <c r="M67">
+        <v>-0.1308028260836987</v>
+      </c>
+      <c r="N67">
         <v>2615.711064259544</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>1313.461623841821</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>1563.104027537588</v>
       </c>
-      <c r="N67">
+      <c r="Q67">
         <v>2044.161339331669</v>
       </c>
-      <c r="O67">
+      <c r="R67">
         <v>1048.014594919088</v>
       </c>
-      <c r="P67">
+      <c r="S67">
         <v>3886.180676926429</v>
       </c>
-      <c r="Q67">
+      <c r="T67">
         <v>289.4153368210521</v>
       </c>
-      <c r="R67">
+      <c r="U67">
         <v>203.5463771634746</v>
+      </c>
+      <c r="V67">
+        <v>1943.263338356512</v>
+      </c>
+      <c r="W67">
+        <v>192.2541067883676</v>
+      </c>
+      <c r="X67">
+        <v>1954.791631067583</v>
       </c>
     </row>
     <row r="68">
@@ -4445,28 +5663,46 @@
         <v>0.8701088434790205</v>
       </c>
       <c r="K68">
+        <v>17.7400988009625</v>
+      </c>
+      <c r="L68">
+        <v>6.081528627100099</v>
+      </c>
+      <c r="M68">
+        <v>3.440963449841698</v>
+      </c>
+      <c r="N68">
         <v>3302.889221602653</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>1883.55419224324</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>2272.522162433666</v>
       </c>
-      <c r="N68">
+      <c r="Q68">
         <v>2441.498595861943</v>
       </c>
-      <c r="O68">
+      <c r="R68">
         <v>1424.111096729952</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>15027.59272903045</v>
       </c>
-      <c r="Q68">
+      <c r="T68">
         <v>335.0060310010796</v>
       </c>
-      <c r="R68">
+      <c r="U68">
         <v>223.4676121962643</v>
+      </c>
+      <c r="V68">
+        <v>2496.095649428614</v>
+      </c>
+      <c r="W68">
+        <v>393.2621357979918</v>
+      </c>
+      <c r="X68">
+        <v>7789.193100405893</v>
       </c>
     </row>
     <row r="69">
@@ -4505,28 +5741,46 @@
         <v>-0.02784032545615012</v>
       </c>
       <c r="K69">
+        <v>-0.04757152799131893</v>
+      </c>
+      <c r="L69">
+        <v>0.2803171968058182</v>
+      </c>
+      <c r="M69">
+        <v>0.37615864992176</v>
+      </c>
+      <c r="N69">
         <v>313.9349810858504</v>
       </c>
-      <c r="L69">
+      <c r="O69">
         <v>452.1689072633548</v>
       </c>
-      <c r="M69">
+      <c r="P69">
         <v>1017.574051695006</v>
       </c>
-      <c r="N69">
+      <c r="Q69">
         <v>212.8157950320271</v>
       </c>
-      <c r="O69">
+      <c r="R69">
         <v>447.9012237054345</v>
       </c>
-      <c r="P69">
+      <c r="S69">
         <v>5309.936478739521</v>
       </c>
-      <c r="Q69">
+      <c r="T69">
         <v>224.9068095558027</v>
       </c>
-      <c r="R69">
+      <c r="U69">
         <v>129.9539166221838</v>
+      </c>
+      <c r="V69">
+        <v>257.6497301611107</v>
+      </c>
+      <c r="W69">
+        <v>106.3522591089556</v>
+      </c>
+      <c r="X69">
+        <v>2715.653636684691</v>
       </c>
     </row>
     <row r="70">
@@ -4565,28 +5819,46 @@
         <v>0.008937673400791903</v>
       </c>
       <c r="K70">
+        <v>-0.002284846097140375</v>
+      </c>
+      <c r="L70">
+        <v>0.126337961663952</v>
+      </c>
+      <c r="M70">
+        <v>0.7049960280417037</v>
+      </c>
+      <c r="N70">
         <v>323.7306411481767</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <v>529.9777044110218</v>
       </c>
-      <c r="M70">
+      <c r="P70">
         <v>1127.628300828646</v>
       </c>
-      <c r="N70">
+      <c r="Q70">
         <v>226.7844364845846</v>
       </c>
-      <c r="O70">
+      <c r="R70">
         <v>457.0408985837475</v>
       </c>
-      <c r="P70">
+      <c r="S70">
         <v>8951.656759768477</v>
       </c>
-      <c r="Q70">
+      <c r="T70">
         <v>222.4992120404778</v>
       </c>
-      <c r="R70">
+      <c r="U70">
         <v>131.2600988915584</v>
+      </c>
+      <c r="V70">
+        <v>282.0677190453009</v>
+      </c>
+      <c r="W70">
+        <v>95.38757381167324</v>
+      </c>
+      <c r="X70">
+        <v>3746.846858606133</v>
       </c>
     </row>
     <row r="71">
@@ -4625,28 +5897,46 @@
         <v>0.5513439315024767</v>
       </c>
       <c r="K71">
+        <v>-0.001382094221349413</v>
+      </c>
+      <c r="L71">
+        <v>0.7769867490162593</v>
+      </c>
+      <c r="M71">
+        <v>0.7034270839517995</v>
+      </c>
+      <c r="N71">
         <v>269.3609140260731</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>573.107614138345</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>977.8714104163133</v>
       </c>
-      <c r="N71">
+      <c r="Q71">
         <v>206.1287752236767</v>
       </c>
-      <c r="O71">
+      <c r="R71">
         <v>485.5324846933917</v>
       </c>
-      <c r="P71">
+      <c r="S71">
         <v>8409.014516735131</v>
       </c>
-      <c r="Q71">
+      <c r="T71">
         <v>328.7518504274673</v>
       </c>
-      <c r="R71">
+      <c r="U71">
         <v>198.8065996744713</v>
+      </c>
+      <c r="V71">
+        <v>258.7694509635472</v>
+      </c>
+      <c r="W71">
+        <v>148.2925614529568</v>
+      </c>
+      <c r="X71">
+        <v>3588.276602430054</v>
       </c>
     </row>
     <row r="72">
@@ -4685,28 +5975,46 @@
         <v>0.1703671608628803</v>
       </c>
       <c r="K72">
+        <v>-0.006246750558472488</v>
+      </c>
+      <c r="L72">
+        <v>0.8955472286521585</v>
+      </c>
+      <c r="M72">
+        <v>1.115319061383056</v>
+      </c>
+      <c r="N72">
         <v>292.1562482243341</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>707.9690964988515</v>
       </c>
-      <c r="M72">
+      <c r="P72">
         <v>1170.17307941056</v>
       </c>
-      <c r="N72">
+      <c r="Q72">
         <v>200.6802391447525</v>
       </c>
-      <c r="O72">
+      <c r="R72">
         <v>553.5049199475131</v>
       </c>
-      <c r="P72">
+      <c r="S72">
         <v>10252.99836899089</v>
       </c>
-      <c r="Q72">
+      <c r="T72">
         <v>304.5661478549617</v>
       </c>
-      <c r="R72">
+      <c r="U72">
         <v>166.2203330262896</v>
+      </c>
+      <c r="V72">
+        <v>264.2636020718103</v>
+      </c>
+      <c r="W72">
+        <v>148.5594870380829</v>
+      </c>
+      <c r="X72">
+        <v>4424.335654109495</v>
       </c>
     </row>
     <row r="73">
@@ -4745,28 +6053,46 @@
         <v>0.5233196003220327</v>
       </c>
       <c r="K73">
+        <v>14.71117125435107</v>
+      </c>
+      <c r="L73">
+        <v>3.622335343745511</v>
+      </c>
+      <c r="M73">
+        <v>0.6868622105589414</v>
+      </c>
+      <c r="N73">
         <v>3621.839865487611</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>1642.074732138347</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>1693.0336792015</v>
       </c>
-      <c r="N73">
+      <c r="Q73">
         <v>2481.874072852112</v>
       </c>
-      <c r="O73">
+      <c r="R73">
         <v>1215.503913450316</v>
       </c>
-      <c r="P73">
+      <c r="S73">
         <v>7646.541448591729</v>
       </c>
-      <c r="Q73">
+      <c r="T73">
         <v>248.3683808199186</v>
       </c>
-      <c r="R73">
+      <c r="U73">
         <v>189.9500097749468</v>
+      </c>
+      <c r="V73">
+        <v>2426.73280668676</v>
+      </c>
+      <c r="W73">
+        <v>316.5890889470157</v>
+      </c>
+      <c r="X73">
+        <v>3054.57944857068</v>
       </c>
     </row>
     <row r="74">
@@ -4805,28 +6131,46 @@
         <v>0.5763966937484771</v>
       </c>
       <c r="K74">
+        <v>15.24898065193583</v>
+      </c>
+      <c r="L74">
+        <v>3.955402041594243</v>
+      </c>
+      <c r="M74">
+        <v>0.2709678519208017</v>
+      </c>
+      <c r="N74">
         <v>3624.247698621682</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <v>1554.520937648768</v>
       </c>
-      <c r="M74">
+      <c r="P74">
         <v>1964.725416660616</v>
       </c>
-      <c r="N74">
+      <c r="Q74">
         <v>2370.657797396986</v>
       </c>
-      <c r="O74">
+      <c r="R74">
         <v>1217.878250945961</v>
       </c>
-      <c r="P74">
+      <c r="S74">
         <v>6329.327455529322</v>
       </c>
-      <c r="Q74">
+      <c r="T74">
         <v>356.7765714027932</v>
       </c>
-      <c r="R74">
+      <c r="U74">
         <v>213.1097220041027</v>
+      </c>
+      <c r="V74">
+        <v>2564.983251817871</v>
+      </c>
+      <c r="W74">
+        <v>282.0714883766727</v>
+      </c>
+      <c r="X74">
+        <v>2772.586531957347</v>
       </c>
     </row>
     <row r="75">
@@ -4865,28 +6209,46 @@
         <v>1.671963922322597</v>
       </c>
       <c r="K75">
+        <v>2.981974922049765</v>
+      </c>
+      <c r="L75">
+        <v>1.185118025464321</v>
+      </c>
+      <c r="M75">
+        <v>-0.04548633055594573</v>
+      </c>
+      <c r="N75">
         <v>1113.417389008471</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <v>719.0697825749763</v>
       </c>
-      <c r="M75">
+      <c r="P75">
         <v>1153.164056012696</v>
       </c>
-      <c r="N75">
+      <c r="Q75">
         <v>982.826599416524</v>
       </c>
-      <c r="O75">
+      <c r="R75">
         <v>673.4044198791217</v>
       </c>
-      <c r="P75">
+      <c r="S75">
         <v>4957.48072821192</v>
       </c>
-      <c r="Q75">
+      <c r="T75">
         <v>387.2850221430938</v>
       </c>
-      <c r="R75">
+      <c r="U75">
         <v>299.6508894564567</v>
+      </c>
+      <c r="V75">
+        <v>918.5574479909731</v>
+      </c>
+      <c r="W75">
+        <v>172.6910220481323</v>
+      </c>
+      <c r="X75">
+        <v>2231.092098327447</v>
       </c>
     </row>
     <row r="76">
@@ -4925,28 +6287,46 @@
         <v>0.2852724955746661</v>
       </c>
       <c r="K76">
+        <v>4.305374139704399</v>
+      </c>
+      <c r="L76">
+        <v>0.6525162564552602</v>
+      </c>
+      <c r="M76">
+        <v>-0.219598020490782</v>
+      </c>
+      <c r="N76">
         <v>1547.590769374583</v>
       </c>
-      <c r="L76">
+      <c r="O76">
         <v>900.7578121480624</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>1327.215363954282</v>
       </c>
-      <c r="N76">
+      <c r="Q76">
         <v>1073.825949961095</v>
       </c>
-      <c r="O76">
+      <c r="R76">
         <v>783.7951811853217</v>
       </c>
-      <c r="P76">
+      <c r="S76">
         <v>3898.348650048895</v>
       </c>
-      <c r="Q76">
+      <c r="T76">
         <v>281.3924431620313</v>
       </c>
-      <c r="R76">
+      <c r="U76">
         <v>179.6395322907414</v>
+      </c>
+      <c r="V76">
+        <v>1173.086577748446</v>
+      </c>
+      <c r="W76">
+        <v>135.3320194757456</v>
+      </c>
+      <c r="X76">
+        <v>1790.571368520064</v>
       </c>
     </row>
     <row r="77">
@@ -4985,28 +6365,46 @@
         <v>0.7003031481652723</v>
       </c>
       <c r="K77">
+        <v>5.024771822306245</v>
+      </c>
+      <c r="L77">
+        <v>0.7490237040279792</v>
+      </c>
+      <c r="M77">
+        <v>2.599692021774172</v>
+      </c>
+      <c r="N77">
         <v>1644.21887788606</v>
       </c>
-      <c r="L77">
+      <c r="O77">
         <v>1104.565395288357</v>
       </c>
-      <c r="M77">
+      <c r="P77">
         <v>1926.810395678205</v>
       </c>
-      <c r="N77">
+      <c r="Q77">
         <v>1113.853773597951</v>
       </c>
-      <c r="O77">
+      <c r="R77">
         <v>851.5558417625703</v>
       </c>
-      <c r="P77">
+      <c r="S77">
         <v>12605.36039148739</v>
       </c>
-      <c r="Q77">
+      <c r="T77">
         <v>364.8818053759368</v>
       </c>
-      <c r="R77">
+      <c r="U77">
         <v>234.6478980588282</v>
+      </c>
+      <c r="V77">
+        <v>1281.259916848357</v>
+      </c>
+      <c r="W77">
+        <v>135.3125504721624</v>
+      </c>
+      <c r="X77">
+        <v>7230.186343187596</v>
       </c>
     </row>
     <row r="78">
@@ -5045,28 +6443,46 @@
         <v>1.099591401780522</v>
       </c>
       <c r="K78">
+        <v>3.955888857159124</v>
+      </c>
+      <c r="L78">
+        <v>1.170382957224012</v>
+      </c>
+      <c r="M78">
+        <v>1.468919907714948</v>
+      </c>
+      <c r="N78">
         <v>1495.046166746896</v>
       </c>
-      <c r="L78">
+      <c r="O78">
         <v>968.0747589268902</v>
       </c>
-      <c r="M78">
+      <c r="P78">
         <v>1683.108732469139</v>
       </c>
-      <c r="N78">
+      <c r="Q78">
         <v>1111.301222005431</v>
       </c>
-      <c r="O78">
+      <c r="R78">
         <v>776.5313939390102</v>
       </c>
-      <c r="P78">
+      <c r="S78">
         <v>11165.28157251033</v>
       </c>
-      <c r="Q78">
+      <c r="T78">
         <v>388.1212106017189</v>
       </c>
-      <c r="R78">
+      <c r="U78">
         <v>252.6222025570632</v>
+      </c>
+      <c r="V78">
+        <v>1184.709355846047</v>
+      </c>
+      <c r="W78">
+        <v>166.8787465669631</v>
+      </c>
+      <c r="X78">
+        <v>5601.940279738074</v>
       </c>
     </row>
     <row r="79">
@@ -5105,28 +6521,46 @@
         <v>0.2769405879362156</v>
       </c>
       <c r="K79">
+        <v>0.3619902606979604</v>
+      </c>
+      <c r="L79">
+        <v>0.2279470394972628</v>
+      </c>
+      <c r="M79">
+        <v>1.080617889022278</v>
+      </c>
+      <c r="N79">
         <v>454.240246808014</v>
       </c>
-      <c r="L79">
+      <c r="O79">
         <v>511.3774853617308</v>
       </c>
-      <c r="M79">
+      <c r="P79">
         <v>1189.75405670738</v>
       </c>
-      <c r="N79">
+      <c r="Q79">
         <v>389.8256847098988</v>
       </c>
-      <c r="O79">
+      <c r="R79">
         <v>487.5901743951237</v>
       </c>
-      <c r="P79">
+      <c r="S79">
         <v>11500.61271670942</v>
       </c>
-      <c r="Q79">
+      <c r="T79">
         <v>290.163051573939</v>
       </c>
-      <c r="R79">
+      <c r="U79">
         <v>182.8843058023837</v>
+      </c>
+      <c r="V79">
+        <v>385.3723989897849</v>
+      </c>
+      <c r="W79">
+        <v>106.895111510008</v>
+      </c>
+      <c r="X79">
+        <v>4806.550194481092</v>
       </c>
     </row>
     <row r="80">
@@ -5165,28 +6599,46 @@
         <v>0.2566048854527777</v>
       </c>
       <c r="K80">
+        <v>0.06983352642337899</v>
+      </c>
+      <c r="L80">
+        <v>0.09389552840354395</v>
+      </c>
+      <c r="M80">
+        <v>0.2654796878699873</v>
+      </c>
+      <c r="N80">
         <v>332.7206118873647</v>
       </c>
-      <c r="L80">
+      <c r="O80">
         <v>428.9333562995468</v>
       </c>
-      <c r="M80">
+      <c r="P80">
         <v>1084.361329931709</v>
       </c>
-      <c r="N80">
+      <c r="Q80">
         <v>268.301793876257</v>
       </c>
-      <c r="O80">
+      <c r="R80">
         <v>431.8757285746449</v>
       </c>
-      <c r="P80">
+      <c r="S80">
         <v>6700.485061075124</v>
       </c>
-      <c r="Q80">
+      <c r="T80">
         <v>291.6406072639571</v>
       </c>
-      <c r="R80">
+      <c r="U80">
         <v>177.0676224978446</v>
+      </c>
+      <c r="V80">
+        <v>305.4346070837025</v>
+      </c>
+      <c r="W80">
+        <v>94.57214013166703</v>
+      </c>
+      <c r="X80">
+        <v>2890.638545842699</v>
       </c>
     </row>
     <row r="81">
@@ -5225,28 +6677,46 @@
         <v>0.8510089419365097</v>
       </c>
       <c r="K81">
+        <v>4.649994250216982</v>
+      </c>
+      <c r="L81">
+        <v>1.870361975530628</v>
+      </c>
+      <c r="M81">
+        <v>-0.1334338852445371</v>
+      </c>
+      <c r="N81">
         <v>1590.402932878797</v>
       </c>
-      <c r="L81">
+      <c r="O81">
         <v>910.0973007525246</v>
       </c>
-      <c r="M81">
+      <c r="P81">
         <v>1211.612720985579</v>
       </c>
-      <c r="N81">
+      <c r="Q81">
         <v>1254.53372238463</v>
       </c>
-      <c r="O81">
+      <c r="R81">
         <v>866.7088159430973</v>
       </c>
-      <c r="P81">
+      <c r="S81">
         <v>4824.235975161433</v>
       </c>
-      <c r="Q81">
+      <c r="T81">
         <v>344.6361982418499</v>
       </c>
-      <c r="R81">
+      <c r="U81">
         <v>231.1241967545985</v>
+      </c>
+      <c r="V81">
+        <v>1161.540944566692</v>
+      </c>
+      <c r="W81">
+        <v>219.8925288354614</v>
+      </c>
+      <c r="X81">
+        <v>1996.600635613973</v>
       </c>
     </row>
     <row r="82">
@@ -5285,28 +6755,46 @@
         <v>0.2500010394532463</v>
       </c>
       <c r="K82">
+        <v>4.138869151401241</v>
+      </c>
+      <c r="L82">
+        <v>1.352676608163504</v>
+      </c>
+      <c r="M82">
+        <v>-0.0497789393414544</v>
+      </c>
+      <c r="N82">
         <v>1568.301993448808</v>
       </c>
-      <c r="L82">
+      <c r="O82">
         <v>866.2932756141116</v>
       </c>
-      <c r="M82">
+      <c r="P82">
         <v>1372.559438686406</v>
       </c>
-      <c r="N82">
+      <c r="Q82">
         <v>1144.655613989757</v>
       </c>
-      <c r="O82">
+      <c r="R82">
         <v>844.56324060092</v>
       </c>
-      <c r="P82">
+      <c r="S82">
         <v>4798.609688746574</v>
       </c>
-      <c r="Q82">
+      <c r="T82">
         <v>280.230966503152</v>
       </c>
-      <c r="R82">
+      <c r="U82">
         <v>172.9426429395135</v>
+      </c>
+      <c r="V82">
+        <v>1142.66841606056</v>
+      </c>
+      <c r="W82">
+        <v>166.4286643331169</v>
+      </c>
+      <c r="X82">
+        <v>2167.170206832559</v>
       </c>
     </row>
     <row r="83">
@@ -5345,28 +6833,46 @@
         <v>0.3027444177028054</v>
       </c>
       <c r="K83">
+        <v>5.655858442475473</v>
+      </c>
+      <c r="L83">
+        <v>1.262076760617139</v>
+      </c>
+      <c r="M83">
+        <v>0.5337887535053472</v>
+      </c>
+      <c r="N83">
         <v>2365.385334717426</v>
       </c>
-      <c r="L83">
+      <c r="O83">
         <v>1294.337614467119</v>
       </c>
-      <c r="M83">
+      <c r="P83">
         <v>1869.15171387214</v>
       </c>
-      <c r="N83">
+      <c r="Q83">
         <v>1484.782022605425</v>
       </c>
-      <c r="O83">
+      <c r="R83">
         <v>979.589055036947</v>
       </c>
-      <c r="P83">
+      <c r="S83">
         <v>8075.250987570153</v>
       </c>
-      <c r="Q83">
+      <c r="T83">
         <v>311.5267594740368</v>
       </c>
-      <c r="R83">
+      <c r="U83">
         <v>182.6773841644366</v>
+      </c>
+      <c r="V83">
+        <v>1604.724303533791</v>
+      </c>
+      <c r="W83">
+        <v>167.0909006524738</v>
+      </c>
+      <c r="X83">
+        <v>3599.141407781075</v>
       </c>
     </row>
     <row r="84">
@@ -5405,28 +6911,46 @@
         <v>0.1228967469204132</v>
       </c>
       <c r="K84">
+        <v>7.332112494309324</v>
+      </c>
+      <c r="L84">
+        <v>1.283234805526845</v>
+      </c>
+      <c r="M84">
+        <v>1.251613660078109</v>
+      </c>
+      <c r="N84">
         <v>2961.625587083108</v>
       </c>
-      <c r="L84">
+      <c r="O84">
         <v>1605.241248308546</v>
       </c>
-      <c r="M84">
+      <c r="P84">
         <v>2034.542361822127</v>
       </c>
-      <c r="N84">
+      <c r="Q84">
         <v>1766.922567857021</v>
       </c>
-      <c r="O84">
+      <c r="R84">
         <v>1151.48570774539</v>
       </c>
-      <c r="P84">
+      <c r="S84">
         <v>13724.97412775923</v>
       </c>
-      <c r="Q84">
+      <c r="T84">
         <v>285.4329209601371</v>
       </c>
-      <c r="R84">
+      <c r="U84">
         <v>158.2145483999373</v>
+      </c>
+      <c r="V84">
+        <v>1960.813535267309</v>
+      </c>
+      <c r="W84">
+        <v>163.5353022075323</v>
+      </c>
+      <c r="X84">
+        <v>4892.446551913302</v>
       </c>
     </row>
     <row r="85">
@@ -5465,28 +6989,46 @@
         <v>0.003630383075560592</v>
       </c>
       <c r="K85">
+        <v>-0.2592538421169376</v>
+      </c>
+      <c r="L85">
+        <v>0.0464771947350704</v>
+      </c>
+      <c r="M85">
+        <v>-0.3100033146554242</v>
+      </c>
+      <c r="N85">
         <v>216.0942758937425</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>365.1784149672643</v>
       </c>
-      <c r="M85">
+      <c r="P85">
         <v>771.7534429573705</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
         <v>170.3236822592834</v>
       </c>
-      <c r="O85">
+      <c r="R85">
         <v>356.317536352922</v>
       </c>
-      <c r="P85">
+      <c r="S85">
         <v>2839.985648450758</v>
       </c>
-      <c r="Q85">
+      <c r="T85">
         <v>217.4637134707882</v>
       </c>
-      <c r="R85">
+      <c r="U85">
         <v>141.0647406436261</v>
+      </c>
+      <c r="V85">
+        <v>200.7314518713225</v>
+      </c>
+      <c r="W85">
+        <v>88.05555926538155</v>
+      </c>
+      <c r="X85">
+        <v>1476.349893499765</v>
       </c>
     </row>
     <row r="86">
@@ -5525,28 +7067,46 @@
         <v>0.5159154836868279</v>
       </c>
       <c r="K86">
+        <v>4.24289542593714</v>
+      </c>
+      <c r="L86">
+        <v>1.829946667284496</v>
+      </c>
+      <c r="M86">
+        <v>0.7315857037514069</v>
+      </c>
+      <c r="N86">
         <v>1963.50699575589</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>1234.778470607007</v>
       </c>
-      <c r="M86">
+      <c r="P86">
         <v>1460.961707645595</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
         <v>1203.339421594422</v>
       </c>
-      <c r="O86">
+      <c r="R86">
         <v>939.1388484209324</v>
       </c>
-      <c r="P86">
+      <c r="S86">
         <v>9560.118998386526</v>
       </c>
-      <c r="Q86">
+      <c r="T86">
         <v>256.6515740378638</v>
       </c>
-      <c r="R86">
+      <c r="U86">
         <v>189.4193596979806</v>
+      </c>
+      <c r="V86">
+        <v>1290.952469221863</v>
+      </c>
+      <c r="W86">
+        <v>213.2430168770098</v>
+      </c>
+      <c r="X86">
+        <v>3776.329628591188</v>
       </c>
     </row>
     <row r="87">
@@ -5585,28 +7145,46 @@
         <v>0.4855180329070936</v>
       </c>
       <c r="K87">
+        <v>4.647400032732868</v>
+      </c>
+      <c r="L87">
+        <v>1.113029558452336</v>
+      </c>
+      <c r="M87">
+        <v>0.3196096593980123</v>
+      </c>
+      <c r="N87">
         <v>1540.128465937451</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>788.9325403828653</v>
       </c>
-      <c r="M87">
+      <c r="P87">
         <v>1422.310375646395</v>
       </c>
-      <c r="N87">
+      <c r="Q87">
         <v>1089.072904204111</v>
       </c>
-      <c r="O87">
+      <c r="R87">
         <v>720.6948157378359</v>
       </c>
-      <c r="P87">
+      <c r="S87">
         <v>5346.77229391835</v>
       </c>
-      <c r="Q87">
+      <c r="T87">
         <v>314.9265082006075</v>
       </c>
-      <c r="R87">
+      <c r="U87">
         <v>206.0814865141668</v>
+      </c>
+      <c r="V87">
+        <v>1123.119593458889</v>
+      </c>
+      <c r="W87">
+        <v>153.7564815286366</v>
+      </c>
+      <c r="X87">
+        <v>2825.243627517893</v>
       </c>
     </row>
     <row r="88">
@@ -5645,28 +7223,46 @@
         <v>0.1038617039797296</v>
       </c>
       <c r="K88">
+        <v>-0.01858840040352818</v>
+      </c>
+      <c r="L88">
+        <v>0.1889514367443297</v>
+      </c>
+      <c r="M88">
+        <v>-0.04821188171485237</v>
+      </c>
+      <c r="N88">
         <v>288.6425441287706</v>
       </c>
-      <c r="L88">
+      <c r="O88">
         <v>464.1538737607646</v>
       </c>
-      <c r="M88">
+      <c r="P88">
         <v>894.9174290264596</v>
       </c>
-      <c r="N88">
+      <c r="Q88">
         <v>259.5706449381724</v>
       </c>
-      <c r="O88">
+      <c r="R88">
         <v>400.7363414921841</v>
       </c>
-      <c r="P88">
+      <c r="S88">
         <v>5143.09591404132</v>
       </c>
-      <c r="Q88">
+      <c r="T88">
         <v>259.2983736039911</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>157.959108854698</v>
+      </c>
+      <c r="V88">
+        <v>267.2826700469953</v>
+      </c>
+      <c r="W88">
+        <v>101.8120737016158</v>
+      </c>
+      <c r="X88">
+        <v>2233.702380169401</v>
       </c>
     </row>
     <row r="89">
@@ -5705,28 +7301,46 @@
         <v>0.02912185528456308</v>
       </c>
       <c r="K89">
+        <v>-0.01542251920417491</v>
+      </c>
+      <c r="L89">
+        <v>0.04834057217676377</v>
+      </c>
+      <c r="M89">
+        <v>0.01707572459723879</v>
+      </c>
+      <c r="N89">
         <v>292.8501443688255</v>
       </c>
-      <c r="L89">
+      <c r="O89">
         <v>468.7627040038837</v>
       </c>
-      <c r="M89">
+      <c r="P89">
         <v>894.4928482046007</v>
       </c>
-      <c r="N89">
+      <c r="Q89">
         <v>257.7035749540707</v>
       </c>
-      <c r="O89">
+      <c r="R89">
         <v>395.9495556706427</v>
       </c>
-      <c r="P89">
+      <c r="S89">
         <v>5840.719858954217</v>
       </c>
-      <c r="Q89">
+      <c r="T89">
         <v>231.0914409345735</v>
       </c>
-      <c r="R89">
+      <c r="U89">
         <v>150.3571930998555</v>
+      </c>
+      <c r="V89">
+        <v>271.3795268964918</v>
+      </c>
+      <c r="W89">
+        <v>89.78851614180599</v>
+      </c>
+      <c r="X89">
+        <v>2360.319190046167</v>
       </c>
     </row>
     <row r="90">
@@ -5765,28 +7379,46 @@
         <v>-0.03853088122342083</v>
       </c>
       <c r="K90">
+        <v>-0.2973967521649243</v>
+      </c>
+      <c r="L90">
+        <v>-0.03684193825146681</v>
+      </c>
+      <c r="M90">
+        <v>-0.1105018274733262</v>
+      </c>
+      <c r="N90">
         <v>209.1952191283796</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <v>416.633114897212</v>
       </c>
-      <c r="M90">
+      <c r="P90">
         <v>875.3602881055605</v>
       </c>
-      <c r="N90">
+      <c r="Q90">
         <v>142.7374488917392</v>
       </c>
-      <c r="O90">
+      <c r="R90">
         <v>340.613036255545</v>
       </c>
-      <c r="P90">
+      <c r="S90">
         <v>5084.573642227786</v>
       </c>
-      <c r="Q90">
+      <c r="T90">
         <v>229.7999478615299</v>
       </c>
-      <c r="R90">
+      <c r="U90">
         <v>140.0860287507521</v>
+      </c>
+      <c r="V90">
+        <v>190.2351843558924</v>
+      </c>
+      <c r="W90">
+        <v>82.66348736554093</v>
+      </c>
+      <c r="X90">
+        <v>2077.243390957539</v>
       </c>
     </row>
     <row r="91">
@@ -5825,28 +7457,46 @@
         <v>-0.05183438066475477</v>
       </c>
       <c r="K91">
+        <v>-0.212259040630305</v>
+      </c>
+      <c r="L91">
+        <v>-0.00449109023532112</v>
+      </c>
+      <c r="M91">
+        <v>0.09604013652839929</v>
+      </c>
+      <c r="N91">
         <v>235.3182088932064</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <v>468.2714686369746</v>
       </c>
-      <c r="M91">
+      <c r="P91">
         <v>1061.833837397048</v>
       </c>
-      <c r="N91">
+      <c r="Q91">
         <v>162.6203026628155</v>
       </c>
-      <c r="O91">
+      <c r="R91">
         <v>395.408123654309</v>
       </c>
-      <c r="P91">
+      <c r="S91">
         <v>5948.758744934655</v>
       </c>
-      <c r="Q91">
+      <c r="T91">
         <v>266.6986568785304</v>
       </c>
-      <c r="R91">
+      <c r="U91">
         <v>138.4639945171556</v>
+      </c>
+      <c r="V91">
+        <v>213.2476037848347</v>
+      </c>
+      <c r="W91">
+        <v>84.00876954105183</v>
+      </c>
+      <c r="X91">
+        <v>2566.674929479009</v>
       </c>
     </row>
     <row r="92">
@@ -5885,28 +7535,46 @@
         <v>0.03375915463126739</v>
       </c>
       <c r="K92">
+        <v>-0.2738180399421186</v>
+      </c>
+      <c r="L92">
+        <v>-0.01356851901997526</v>
+      </c>
+      <c r="M92">
+        <v>0.4218511778924087</v>
+      </c>
+      <c r="N92">
         <v>216.1347441174957</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>443.774085453583</v>
       </c>
-      <c r="M92">
+      <c r="P92">
         <v>979.4942402276076</v>
       </c>
-      <c r="N92">
+      <c r="Q92">
         <v>167.6700977220063</v>
       </c>
-      <c r="O92">
+      <c r="R92">
         <v>373.0330100966503</v>
       </c>
-      <c r="P92">
+      <c r="S92">
         <v>7688.572093389653</v>
       </c>
-      <c r="Q92">
+      <c r="T92">
         <v>249.5644631316524</v>
       </c>
-      <c r="R92">
+      <c r="U92">
         <v>149.0511831373644</v>
+      </c>
+      <c r="V92">
+        <v>200.9010490660793</v>
+      </c>
+      <c r="W92">
+        <v>82.76956163835389</v>
+      </c>
+      <c r="X92">
+        <v>3286.55372004345</v>
       </c>
     </row>
     <row r="93">
@@ -5945,28 +7613,46 @@
         <v>-0.01073190348883867</v>
       </c>
       <c r="K93">
+        <v>-0.3566832806856546</v>
+      </c>
+      <c r="L93">
+        <v>0.04330033495755788</v>
+      </c>
+      <c r="M93">
+        <v>-0.173450167663545</v>
+      </c>
+      <c r="N93">
         <v>175.6670164656798</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>359.5201344925406</v>
       </c>
-      <c r="M93">
+      <c r="P93">
         <v>819.2162623780091</v>
       </c>
-      <c r="N93">
+      <c r="Q93">
         <v>133.8056000088426</v>
       </c>
-      <c r="O93">
+      <c r="R93">
         <v>324.4108678763278</v>
       </c>
-      <c r="P93">
+      <c r="S93">
         <v>4411.949813920234</v>
       </c>
-      <c r="Q93">
+      <c r="T93">
         <v>245.6705290774601</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <v>143.2745995005633</v>
+      </c>
+      <c r="V93">
+        <v>171.6625280669221</v>
+      </c>
+      <c r="W93">
+        <v>83.19235948890109</v>
+      </c>
+      <c r="X93">
+        <v>1925.350065454922</v>
       </c>
     </row>
     <row r="94">
@@ -6005,28 +7691,46 @@
         <v>-0.04579974589274657</v>
       </c>
       <c r="K94">
+        <v>-0.05501031520245524</v>
+      </c>
+      <c r="L94">
+        <v>0.4059334201388263</v>
+      </c>
+      <c r="M94">
+        <v>0.3980642713475143</v>
+      </c>
+      <c r="N94">
         <v>272.4015649228922</v>
       </c>
-      <c r="L94">
+      <c r="O94">
         <v>473.7165739611416</v>
       </c>
-      <c r="M94">
+      <c r="P94">
         <v>1138.16221450414</v>
       </c>
-      <c r="N94">
+      <c r="Q94">
         <v>222.1139541988721</v>
       </c>
-      <c r="O94">
+      <c r="R94">
         <v>421.8591331088921</v>
       </c>
-      <c r="P94">
+      <c r="S94">
         <v>7683.989687643189</v>
       </c>
-      <c r="Q94">
+      <c r="T94">
         <v>256.1881395403873</v>
       </c>
-      <c r="R94">
+      <c r="U94">
         <v>137.9422515630777</v>
+      </c>
+      <c r="V94">
+        <v>255.6821302494021</v>
+      </c>
+      <c r="W94">
+        <v>116.378816941686</v>
+      </c>
+      <c r="X94">
+        <v>3282.714438826642</v>
       </c>
     </row>
     <row r="95">
@@ -6065,28 +7769,46 @@
         <v>-0.02641480314730701</v>
       </c>
       <c r="K95">
+        <v>0.3522963856327885</v>
+      </c>
+      <c r="L95">
+        <v>0.9496214875483115</v>
+      </c>
+      <c r="M95">
+        <v>1.282655227957345</v>
+      </c>
+      <c r="N95">
         <v>452.3373751060814</v>
       </c>
-      <c r="L95">
+      <c r="O95">
         <v>692.8638237273686</v>
       </c>
-      <c r="M95">
+      <c r="P95">
         <v>1261.432393430235</v>
       </c>
-      <c r="N95">
+      <c r="Q95">
         <v>351.8211003076245</v>
       </c>
-      <c r="O95">
+      <c r="R95">
         <v>561.2498987871145</v>
       </c>
-      <c r="P95">
+      <c r="S95">
         <v>14441.64339458837</v>
       </c>
-      <c r="Q95">
+      <c r="T95">
         <v>238.394481083132</v>
       </c>
-      <c r="R95">
+      <c r="U95">
         <v>140.7226702974701</v>
+      </c>
+      <c r="V95">
+        <v>383.5895423010533</v>
+      </c>
+      <c r="W95">
+        <v>160.4146796069155</v>
+      </c>
+      <c r="X95">
+        <v>5026.55938568199</v>
       </c>
     </row>
     <row r="96">
@@ -6125,28 +7847,46 @@
         <v>0.4548634496215055</v>
       </c>
       <c r="K96">
+        <v>11.61312973410605</v>
+      </c>
+      <c r="L96">
+        <v>2.450967059002048</v>
+      </c>
+      <c r="M96">
+        <v>0.2652188161453019</v>
+      </c>
+      <c r="N96">
         <v>3754.886491003697</v>
       </c>
-      <c r="L96">
+      <c r="O96">
         <v>1552.416415951103</v>
       </c>
-      <c r="M96">
+      <c r="P96">
         <v>1758.624718496077</v>
       </c>
-      <c r="N96">
+      <c r="Q96">
         <v>2276.553168806361</v>
       </c>
-      <c r="O96">
+      <c r="R96">
         <v>1167.600357064059</v>
       </c>
-      <c r="P96">
+      <c r="S96">
         <v>6953.036488752655</v>
       </c>
-      <c r="Q96">
+      <c r="T96">
         <v>276.6637605127317</v>
       </c>
-      <c r="R96">
+      <c r="U96">
         <v>205.1678970304484</v>
+      </c>
+      <c r="V96">
+        <v>2484.743323026361</v>
+      </c>
+      <c r="W96">
+        <v>251.494235171448</v>
+      </c>
+      <c r="X96">
+        <v>2964.228484410858</v>
       </c>
     </row>
     <row r="97">
@@ -6185,28 +7925,46 @@
         <v>0.3330862626256778</v>
       </c>
       <c r="K97">
+        <v>9.046065333207423</v>
+      </c>
+      <c r="L97">
+        <v>1.493622452820598</v>
+      </c>
+      <c r="M97">
+        <v>0.004515471455234678</v>
+      </c>
+      <c r="N97">
         <v>3125.518341717396</v>
       </c>
-      <c r="L97">
+      <c r="O97">
         <v>1354.904769410029</v>
       </c>
-      <c r="M97">
+      <c r="P97">
         <v>1637.363648270913</v>
       </c>
-      <c r="N97">
+      <c r="Q97">
         <v>1896.052190392121</v>
       </c>
-      <c r="O97">
+      <c r="R97">
         <v>1030.096532365362</v>
       </c>
-      <c r="P97">
+      <c r="S97">
         <v>5204.493869636707</v>
       </c>
-      <c r="Q97">
+      <c r="T97">
         <v>256.5167342900909</v>
       </c>
-      <c r="R97">
+      <c r="U97">
         <v>184.6410994597853</v>
+      </c>
+      <c r="V97">
+        <v>2054.331649138786</v>
+      </c>
+      <c r="W97">
+        <v>183.3797527004702</v>
+      </c>
+      <c r="X97">
+        <v>2331.952610570716</v>
       </c>
     </row>
     <row r="98">
@@ -6245,28 +8003,46 @@
         <v>0.3759863711158326</v>
       </c>
       <c r="K98">
+        <v>10.88946303061876</v>
+      </c>
+      <c r="L98">
+        <v>3.469661159499931</v>
+      </c>
+      <c r="M98">
+        <v>0.4251608857280555</v>
+      </c>
+      <c r="N98">
         <v>3319.716222593072</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>1479.252625467673</v>
       </c>
-      <c r="M98">
+      <c r="P98">
         <v>1765.34732663192</v>
       </c>
-      <c r="N98">
+      <c r="Q98">
         <v>2085.741439636782</v>
       </c>
-      <c r="O98">
+      <c r="R98">
         <v>1167.550047948987</v>
       </c>
-      <c r="P98">
+      <c r="S98">
         <v>6821.117201293558</v>
       </c>
-      <c r="Q98">
+      <c r="T98">
         <v>268.9912134567161</v>
       </c>
-      <c r="R98">
+      <c r="U98">
         <v>176.8292907340586</v>
+      </c>
+      <c r="V98">
+        <v>2245.407659471472</v>
+      </c>
+      <c r="W98">
+        <v>249.3406757782563</v>
+      </c>
+      <c r="X98">
+        <v>3040.370634559456</v>
       </c>
     </row>
     <row r="99">
@@ -6305,28 +8081,46 @@
         <v>0.4030157896649698</v>
       </c>
       <c r="K99">
+        <v>12.06545587499481</v>
+      </c>
+      <c r="L99">
+        <v>3.159889252802071</v>
+      </c>
+      <c r="M99">
+        <v>1.200583767818918</v>
+      </c>
+      <c r="N99">
         <v>3451.478821025901</v>
       </c>
-      <c r="L99">
+      <c r="O99">
         <v>1608.697077740734</v>
       </c>
-      <c r="M99">
+      <c r="P99">
         <v>1851.477088908578</v>
       </c>
-      <c r="N99">
+      <c r="Q99">
         <v>2370.366570421871</v>
       </c>
-      <c r="O99">
+      <c r="R99">
         <v>1212.850526718629</v>
       </c>
-      <c r="P99">
+      <c r="S99">
         <v>12603.52511034806</v>
       </c>
-      <c r="Q99">
+      <c r="T99">
         <v>253.139153736389</v>
       </c>
-      <c r="R99">
+      <c r="U99">
         <v>184.0310999111496</v>
+      </c>
+      <c r="V99">
+        <v>2249.226203705413</v>
+      </c>
+      <c r="W99">
+        <v>257.9534634037531</v>
+      </c>
+      <c r="X99">
+        <v>4677.79472083241</v>
       </c>
     </row>
     <row r="100">
@@ -6365,28 +8159,46 @@
         <v>0.1386925555986804</v>
       </c>
       <c r="K100">
+        <v>2.339066635994961</v>
+      </c>
+      <c r="L100">
+        <v>0.7837029418463036</v>
+      </c>
+      <c r="M100">
+        <v>1.167908503758755</v>
+      </c>
+      <c r="N100">
         <v>1275.92280111801</v>
       </c>
-      <c r="L100">
+      <c r="O100">
         <v>879.5971715476624</v>
       </c>
-      <c r="M100">
+      <c r="P100">
         <v>1598.354340369764</v>
       </c>
-      <c r="N100">
+      <c r="Q100">
         <v>819.2334613680396</v>
       </c>
-      <c r="O100">
+      <c r="R100">
         <v>714.2226046994482</v>
       </c>
-      <c r="P100">
+      <c r="S100">
         <v>12163.10912364916</v>
       </c>
-      <c r="Q100">
+      <c r="T100">
         <v>263.6948530984869</v>
       </c>
-      <c r="R100">
+      <c r="U100">
         <v>164.7516350330804</v>
+      </c>
+      <c r="V100">
+        <v>868.897445892876</v>
+      </c>
+      <c r="W100">
+        <v>144.7374368070854</v>
+      </c>
+      <c r="X100">
+        <v>5080.371706984224</v>
       </c>
     </row>
     <row r="101">
@@ -6425,28 +8237,46 @@
         <v>0.2592074913512813</v>
       </c>
       <c r="K101">
+        <v>6.107125534754027</v>
+      </c>
+      <c r="L101">
+        <v>1.438134759348629</v>
+      </c>
+      <c r="M101">
+        <v>1.072745097870181</v>
+      </c>
+      <c r="N101">
         <v>2533.914183779652</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>1215.941506215386</v>
       </c>
-      <c r="M101">
+      <c r="P101">
         <v>1780.399713166238</v>
       </c>
-      <c r="N101">
+      <c r="Q101">
         <v>1347.800631027501</v>
       </c>
-      <c r="O101">
+      <c r="R101">
         <v>910.4269190353816</v>
       </c>
-      <c r="P101">
+      <c r="S101">
         <v>9230.755668063617</v>
       </c>
-      <c r="Q101">
+      <c r="T101">
         <v>264.7396001450181</v>
       </c>
-      <c r="R101">
+      <c r="U101">
         <v>161.9920750926974</v>
+      </c>
+      <c r="V101">
+        <v>1692.311281649375</v>
+      </c>
+      <c r="W101">
+        <v>167.0798087219982</v>
+      </c>
+      <c r="X101">
+        <v>4642.886461005337</v>
       </c>
     </row>
     <row r="102">
@@ -6485,28 +8315,46 @@
         <v>3.099729645512336</v>
       </c>
       <c r="K102">
+        <v>9.377489696821192</v>
+      </c>
+      <c r="L102">
+        <v>4.348651290422301</v>
+      </c>
+      <c r="M102">
+        <v>0.9992845524557459</v>
+      </c>
+      <c r="N102">
         <v>1939.77757406541</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <v>1148.963565988828</v>
       </c>
-      <c r="M102">
+      <c r="P102">
         <v>1380.05653436903</v>
       </c>
-      <c r="N102">
+      <c r="Q102">
         <v>1870.760835455293</v>
       </c>
-      <c r="O102">
+      <c r="R102">
         <v>945.2441004697024</v>
       </c>
-      <c r="P102">
+      <c r="S102">
         <v>7356.111749438628</v>
       </c>
-      <c r="Q102">
+      <c r="T102">
         <v>436.1616918156179</v>
       </c>
-      <c r="R102">
+      <c r="U102">
         <v>347.428234109705</v>
+      </c>
+      <c r="V102">
+        <v>1553.409485175363</v>
+      </c>
+      <c r="W102">
+        <v>351.0700205107687</v>
+      </c>
+      <c r="X102">
+        <v>3707.584403261557</v>
       </c>
     </row>
     <row r="103">
@@ -6545,28 +8393,46 @@
         <v>0.4765880810253572</v>
       </c>
       <c r="K103">
+        <v>10.87422826656429</v>
+      </c>
+      <c r="L103">
+        <v>2.77368227928527</v>
+      </c>
+      <c r="M103">
+        <v>0.3978251257107672</v>
+      </c>
+      <c r="N103">
         <v>2670.425377069929</v>
       </c>
-      <c r="L103">
+      <c r="O103">
         <v>1515.855041083612</v>
       </c>
-      <c r="M103">
+      <c r="P103">
         <v>1361.491426509363</v>
       </c>
-      <c r="N103">
+      <c r="Q103">
         <v>1987.517522053835</v>
       </c>
-      <c r="O103">
+      <c r="R103">
         <v>1015.29044671172</v>
       </c>
-      <c r="P103">
+      <c r="S103">
         <v>7815.323405900883</v>
       </c>
-      <c r="Q103">
+      <c r="T103">
         <v>272.547877270347</v>
       </c>
-      <c r="R103">
+      <c r="U103">
         <v>192.4565019593685</v>
+      </c>
+      <c r="V103">
+        <v>1878.202810650263</v>
+      </c>
+      <c r="W103">
+        <v>286.0899044513035</v>
+      </c>
+      <c r="X103">
+        <v>2941.490846849291</v>
       </c>
     </row>
     <row r="104">
@@ -6605,28 +8471,46 @@
         <v>2.052280965250011</v>
       </c>
       <c r="K104">
+        <v>7.433601242698528</v>
+      </c>
+      <c r="L104">
+        <v>2.074160342333089</v>
+      </c>
+      <c r="M104">
+        <v>-0.09054198118456365</v>
+      </c>
+      <c r="N104">
         <v>1809.475422683818</v>
       </c>
-      <c r="L104">
+      <c r="O104">
         <v>972.6669896605569</v>
       </c>
-      <c r="M104">
+      <c r="P104">
         <v>1087.787257460178</v>
       </c>
-      <c r="N104">
+      <c r="Q104">
         <v>1349.403896124317</v>
       </c>
-      <c r="O104">
+      <c r="R104">
         <v>789.7307545148358</v>
       </c>
-      <c r="P104">
+      <c r="S104">
         <v>3947.625329430814</v>
       </c>
-      <c r="Q104">
+      <c r="T104">
         <v>378.453805864303</v>
       </c>
-      <c r="R104">
+      <c r="U104">
         <v>286.5923381212305</v>
+      </c>
+      <c r="V104">
+        <v>1357.515788907209</v>
+      </c>
+      <c r="W104">
+        <v>246.4100045171279</v>
+      </c>
+      <c r="X104">
+        <v>1959.361568083663</v>
       </c>
     </row>
     <row r="105">
@@ -6665,28 +8549,46 @@
         <v>0.4434975311339179</v>
       </c>
       <c r="K105">
+        <v>14.27504797918162</v>
+      </c>
+      <c r="L105">
+        <v>4.273780645333817</v>
+      </c>
+      <c r="M105">
+        <v>1.602599282621276</v>
+      </c>
+      <c r="N105">
         <v>3297.420686932232</v>
       </c>
-      <c r="L105">
+      <c r="O105">
         <v>1738.180768463948</v>
       </c>
-      <c r="M105">
+      <c r="P105">
         <v>1784.351956129566</v>
       </c>
-      <c r="N105">
+      <c r="Q105">
         <v>2279.453741076811</v>
       </c>
-      <c r="O105">
+      <c r="R105">
         <v>1224.593203853128</v>
       </c>
-      <c r="P105">
+      <c r="S105">
         <v>11545.81051837687</v>
       </c>
-      <c r="Q105">
+      <c r="T105">
         <v>312.6927970974538</v>
       </c>
-      <c r="R105">
+      <c r="U105">
         <v>191.3673861363929</v>
+      </c>
+      <c r="V105">
+        <v>2292.642734843678</v>
+      </c>
+      <c r="W105">
+        <v>366.2429950321186</v>
+      </c>
+      <c r="X105">
+        <v>5230.325980561727</v>
       </c>
     </row>
     <row r="106">
@@ -6725,28 +8627,46 @@
         <v>3.061726832862999</v>
       </c>
       <c r="K106">
+        <v>0.3636560064800461</v>
+      </c>
+      <c r="L106">
+        <v>1.773600696092092</v>
+      </c>
+      <c r="M106">
+        <v>-0.2673713792698609</v>
+      </c>
+      <c r="N106">
         <v>318.2063893505624</v>
       </c>
-      <c r="L106">
+      <c r="O106">
         <v>374.7235577867979</v>
       </c>
-      <c r="M106">
+      <c r="P106">
         <v>590.9781242451304</v>
       </c>
-      <c r="N106">
+      <c r="Q106">
         <v>311.6172523045821</v>
       </c>
-      <c r="O106">
+      <c r="R106">
         <v>354.332442233698</v>
       </c>
-      <c r="P106">
+      <c r="S106">
         <v>2990.528414142239</v>
       </c>
-      <c r="Q106">
+      <c r="T106">
         <v>388.6116659454868</v>
       </c>
-      <c r="R106">
+      <c r="U106">
         <v>331.0023064267359</v>
+      </c>
+      <c r="V106">
+        <v>310.4374517352391</v>
+      </c>
+      <c r="W106">
+        <v>176.8524980149849</v>
+      </c>
+      <c r="X106">
+        <v>1583.690382123434</v>
       </c>
     </row>
     <row r="107">
@@ -6785,28 +8705,46 @@
         <v>0.6800924770038561</v>
       </c>
       <c r="K107">
+        <v>8.958782927995038</v>
+      </c>
+      <c r="L107">
+        <v>2.536855190479292</v>
+      </c>
+      <c r="M107">
+        <v>1.056515702294785</v>
+      </c>
+      <c r="N107">
         <v>3566.929817674593</v>
       </c>
-      <c r="L107">
+      <c r="O107">
         <v>1698.491220060652</v>
       </c>
-      <c r="M107">
+      <c r="P107">
         <v>1909.128691123912</v>
       </c>
-      <c r="N107">
+      <c r="Q107">
         <v>2276.177774150889</v>
       </c>
-      <c r="O107">
+      <c r="R107">
         <v>1217.449297468608</v>
       </c>
-      <c r="P107">
+      <c r="S107">
         <v>12877.78103499802</v>
       </c>
-      <c r="Q107">
+      <c r="T107">
         <v>294.2311762988281</v>
       </c>
-      <c r="R107">
+      <c r="U107">
         <v>228.7903732262296</v>
+      </c>
+      <c r="V107">
+        <v>2351.21879748393</v>
+      </c>
+      <c r="W107">
+        <v>269.959215111216</v>
+      </c>
+      <c r="X107">
+        <v>4564.393453808899</v>
       </c>
     </row>
     <row r="108">
@@ -6845,28 +8783,46 @@
         <v>0.9672422878338257</v>
       </c>
       <c r="K108">
+        <v>5.119009543602649</v>
+      </c>
+      <c r="L108">
+        <v>2.092931439442554</v>
+      </c>
+      <c r="M108">
+        <v>0.2079622568083541</v>
+      </c>
+      <c r="N108">
         <v>2194.25650670568</v>
       </c>
-      <c r="L108">
+      <c r="O108">
         <v>1097.225495455827</v>
       </c>
-      <c r="M108">
+      <c r="P108">
         <v>1635.472896699798</v>
       </c>
-      <c r="N108">
+      <c r="Q108">
         <v>1446.498443637167</v>
       </c>
-      <c r="O108">
+      <c r="R108">
         <v>974.2549946091286</v>
       </c>
-      <c r="P108">
+      <c r="S108">
         <v>5837.436635173097</v>
       </c>
-      <c r="Q108">
+      <c r="T108">
         <v>355.2689547007811</v>
       </c>
-      <c r="R108">
+      <c r="U108">
         <v>252.7348836352629</v>
+      </c>
+      <c r="V108">
+        <v>1534.883791020123</v>
+      </c>
+      <c r="W108">
+        <v>232.4831317121054</v>
+      </c>
+      <c r="X108">
+        <v>2717.017195286457</v>
       </c>
     </row>
     <row r="109">
@@ -6905,28 +8861,46 @@
         <v>0.495002021711253</v>
       </c>
       <c r="K109">
+        <v>3.133317872640081</v>
+      </c>
+      <c r="L109">
+        <v>3.910784879921014</v>
+      </c>
+      <c r="M109">
+        <v>2.086392668992078</v>
+      </c>
+      <c r="N109">
         <v>1560.510619716695</v>
       </c>
-      <c r="L109">
+      <c r="O109">
         <v>1024.439932229115</v>
       </c>
-      <c r="M109">
+      <c r="P109">
         <v>1230.166339364422</v>
       </c>
-      <c r="N109">
+      <c r="Q109">
         <v>1047.575776362046</v>
       </c>
-      <c r="O109">
+      <c r="R109">
         <v>842.1819712743541</v>
       </c>
-      <c r="P109">
+      <c r="S109">
         <v>16871.67635060463</v>
       </c>
-      <c r="Q109">
+      <c r="T109">
         <v>254.6142844507739</v>
       </c>
-      <c r="R109">
+      <c r="U109">
         <v>184.6248266128735</v>
+      </c>
+      <c r="V109">
+        <v>1008.015970110863</v>
+      </c>
+      <c r="W109">
+        <v>361.6566552227311</v>
+      </c>
+      <c r="X109">
+        <v>6064.300241759107</v>
       </c>
     </row>
     <row r="110">
@@ -6965,28 +8939,46 @@
         <v>0.8226540879328939</v>
       </c>
       <c r="K110">
+        <v>12.55908950256942</v>
+      </c>
+      <c r="L110">
+        <v>1.248949562945401</v>
+      </c>
+      <c r="M110">
+        <v>2.042806417940946</v>
+      </c>
+      <c r="N110">
         <v>1064.132220351503</v>
       </c>
-      <c r="L110">
+      <c r="O110">
         <v>907.032527596619</v>
       </c>
-      <c r="M110">
+      <c r="P110">
         <v>1464.719446352288</v>
       </c>
-      <c r="N110">
+      <c r="Q110">
         <v>1095.727261150818</v>
       </c>
-      <c r="O110">
+      <c r="R110">
         <v>703.5668449794081</v>
       </c>
-      <c r="P110">
+      <c r="S110">
         <v>17281.76823724833</v>
       </c>
-      <c r="Q110">
+      <c r="T110">
         <v>345.3579051373666</v>
       </c>
-      <c r="R110">
+      <c r="U110">
         <v>245.9794763693379</v>
+      </c>
+      <c r="V110">
+        <v>880.7065045187278</v>
+      </c>
+      <c r="W110">
+        <v>189.763854728475</v>
+      </c>
+      <c r="X110">
+        <v>7133.704927897548</v>
       </c>
     </row>
     <row r="111">
@@ -7025,28 +9017,46 @@
         <v>0.221079863070592</v>
       </c>
       <c r="K111">
+        <v>2.310515359683893</v>
+      </c>
+      <c r="L111">
+        <v>0.5694686766541163</v>
+      </c>
+      <c r="M111">
+        <v>1.369945746757125</v>
+      </c>
+      <c r="N111">
         <v>818.6193337262996</v>
       </c>
-      <c r="L111">
+      <c r="O111">
         <v>745.9552744517327</v>
       </c>
-      <c r="M111">
+      <c r="P111">
         <v>1261.013363205668</v>
       </c>
-      <c r="N111">
+      <c r="Q111">
         <v>676.1261280422455</v>
       </c>
-      <c r="O111">
+      <c r="R111">
         <v>613.6196327499938</v>
       </c>
-      <c r="P111">
+      <c r="S111">
         <v>13465.67653995487</v>
       </c>
-      <c r="Q111">
+      <c r="T111">
         <v>270.0571955194249</v>
       </c>
-      <c r="R111">
+      <c r="U111">
         <v>173.5893522812111</v>
+      </c>
+      <c r="V111">
+        <v>646.1126673612169</v>
+      </c>
+      <c r="W111">
+        <v>131.2461637476635</v>
+      </c>
+      <c r="X111">
+        <v>5537.617710737773</v>
       </c>
     </row>
     <row r="112">
@@ -7085,28 +9095,46 @@
         <v>0.0294080144752244</v>
       </c>
       <c r="K112">
+        <v>0.760322898710185</v>
+      </c>
+      <c r="L112">
+        <v>0.6445440633640835</v>
+      </c>
+      <c r="M112">
+        <v>0.4122037305828004</v>
+      </c>
+      <c r="N112">
         <v>688.4782678086534</v>
       </c>
-      <c r="L112">
+      <c r="O112">
         <v>758.6743040084156</v>
       </c>
-      <c r="M112">
+      <c r="P112">
         <v>1111.648572496126</v>
       </c>
-      <c r="N112">
+      <c r="Q112">
         <v>453.6581438365121</v>
       </c>
-      <c r="O112">
+      <c r="R112">
         <v>598.2678080913053</v>
       </c>
-      <c r="P112">
+      <c r="S112">
         <v>8589.260613124121</v>
       </c>
-      <c r="Q112">
+      <c r="T112">
         <v>248.2176720464151</v>
       </c>
-      <c r="R112">
+      <c r="U112">
         <v>148.5164446411826</v>
+      </c>
+      <c r="V112">
+        <v>493.8407479948345</v>
+      </c>
+      <c r="W112">
+        <v>135.9483545765</v>
+      </c>
+      <c r="X112">
+        <v>3212.18550564664</v>
       </c>
     </row>
   </sheetData>
